--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54516.47820530765</v>
+        <v>-65930.30635190637</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20123643.36647109</v>
+        <v>20127325.53332614</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>724170.0191118929</v>
+        <v>723263.8874879106</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="D11" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>13.26313419174923</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="S11" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
     </row>
     <row r="12">
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>13.7425402420767</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>15.05805425947915</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="U12" t="n">
-        <v>14.57864820915168</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="C14" t="n">
-        <v>9.419428874312961</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.84370531743626</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>15.05805425947914</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>15.05805425947914</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>15.05805425947914</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.078461914436927</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="F15" t="n">
-        <v>15.05805425947914</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15.05805425947914</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>5.500186294714744</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>13.7425402420767</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
     </row>
     <row r="16">
@@ -1843,76 +1843,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20.70735517432627</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>14.11143217127993</v>
+      </c>
+      <c r="S17" t="n">
         <v>23.50971295904437</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.595923003046355</v>
       </c>
       <c r="X17" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1937,49 +1937,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>20.70735517432628</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>23.50971295904437</v>
       </c>
-      <c r="I18" t="n">
-        <v>10.03700156004394</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.775148425455182</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>12.60890503121191</v>
-      </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>23.50971295904437</v>
-      </c>
-      <c r="T18" t="n">
-        <v>17.79601311665963</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.183833028195925</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>3.183833028195922</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0.1585647136001427</v>
       </c>
       <c r="R20" t="n">
-        <v>14.11143217127993</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.437358289446218</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>20.54879046072615</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10.67035361428234</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>4.323301717659199</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.03700156004394</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>3.775148425455178</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>12.60890503121191</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="W21" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>3.183833028195926</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>3.183833028195928</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2329,19 +2329,19 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>23.86249467691517</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="H23" t="n">
-        <v>23.86249467691517</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.027774177190924</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>14.01919626068103</v>
       </c>
       <c r="S23" t="n">
-        <v>23.86249467691517</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>5.971114873554931</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>21.01808531142688</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>23.86249467691517</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>17.31716204183246</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3.700923269594412</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>21.01808531142688</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>23.86249467691517</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>23.86249467691517</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>23.86249467691518</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.479784596074301</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>3.479784596074297</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,73 +2554,73 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>14.01919626068103</v>
+      </c>
+      <c r="S26" t="n">
         <v>23.86249467691518</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>21.6512210128432</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.027774177190924</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="W26" t="n">
-        <v>23.86249467691518</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>22.20158479830793</v>
+        <v>6.998889050745864</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>8.457958484864943</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>12.56012682656194</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>23.86249467691518</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>21.01808531142688</v>
       </c>
       <c r="V27" t="n">
-        <v>23.86249467691518</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>23.86249467691518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>3.479784596074297</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>3.479784596074298</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>23.86249467691516</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>23.86249467691516</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>21.01808531142686</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>23.86249467691516</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>21.01808531142688</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>8.457958484864943</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="D30" t="n">
-        <v>21.01808531142686</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>12.56012682656194</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>23.86249467691516</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>23.86249467691516</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>23.86249467691516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>3.479784596074288</v>
       </c>
       <c r="V31" t="n">
-        <v>3.479784596074297</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3031,73 +3031,73 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>23.86249467691516</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>19.99031113423593</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.027774177190928</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
         <v>23.86249467691516</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>14.01919626068103</v>
-      </c>
-      <c r="S32" t="n">
-        <v>6.998889050745829</v>
-      </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>23.86249467691516</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>23.86249467691516</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>23.86249467691516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>23.86249467691516</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>23.86249467691516</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>23.86249467691516</v>
       </c>
       <c r="I33" t="n">
-        <v>8.457958484864919</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>12.56012682656194</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
+        <v>21.01808531142687</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>23.86249467691516</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>3.479784596074287</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>3.479784596074287</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>23.86249467691517</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>23.86249467691517</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.971114873554908</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1.027774177190928</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>14.01919626068103</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>23.86249467691517</v>
       </c>
       <c r="T35" t="n">
-        <v>23.86249467691515</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>23.86249467691515</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>23.86249467691515</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>21.01808531142686</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>23.86249467691517</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>21.01808531142688</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>23.86249467691517</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>23.86249467691517</v>
       </c>
       <c r="U36" t="n">
-        <v>23.86249467691515</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>23.86249467691515</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>23.86249467691515</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>21.01808531142686</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>3.479784596074287</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>3.479784596074287</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>23.86249467691517</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.027774177190928</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>23.86249467691517</v>
       </c>
-      <c r="V38" t="n">
-        <v>6.99888905074584</v>
-      </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>23.86249467691517</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>5.971114873554912</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,67 +3587,67 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.700923269594416</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
         <v>23.86249467691517</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>21.01808531142688</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="T39" t="n">
         <v>23.86249467691517</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>23.86249467691517</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>17.31716204183246</v>
       </c>
       <c r="X39" t="n">
-        <v>23.86249467691517</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3.479784596074287</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>3.479784596074287</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>23.86249467691517</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>9.210162714817766</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>23.86249467691515</v>
+        <v>21.01808531142688</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>23.86249467691517</v>
       </c>
       <c r="I41" t="n">
-        <v>21.65122101284321</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>14.01919626068103</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>23.86249467691517</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>23.86249467691515</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3821,19 +3821,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>21.01808531142686</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>23.86249467691515</v>
+        <v>23.86249467691517</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>23.86249467691517</v>
       </c>
       <c r="F42" t="n">
-        <v>23.86249467691515</v>
+        <v>23.86249467691517</v>
       </c>
       <c r="G42" t="n">
-        <v>23.86249467691515</v>
+        <v>21.01808531142688</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3.479784596074287</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>3.479784596074286</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>27.10214433847837</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>10.61304252267169</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.998889050745819</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>13.25852621066004</v>
+        <v>14.01919626068103</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>23.86249467691516</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>23.86249467691516</v>
       </c>
       <c r="U44" t="n">
-        <v>27.10214433847837</v>
+        <v>23.86249467691516</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>27.10214433847837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,25 +4061,25 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>27.10214433847837</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>27.10214433847837</v>
+        <v>23.86249467691516</v>
       </c>
       <c r="G45" t="n">
-        <v>27.10214433847837</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>8.624928011842268</v>
+        <v>21.01808531142686</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.088788010617488</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>12.15785271087198</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>23.86249467691516</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>23.86249467691516</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>5.920498765643425</v>
+        <v>3.479784596074287</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.02206122026088</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="C11" t="n">
-        <v>45.02206122026088</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="D11" t="n">
-        <v>29.81190540260518</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="E11" t="n">
-        <v>14.60174958494947</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="F11" t="n">
-        <v>1.204644340758332</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="G11" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H11" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I11" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J11" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K11" t="n">
-        <v>3.442330717834878</v>
+        <v>3.442330717834865</v>
       </c>
       <c r="L11" t="n">
-        <v>12.21491484027815</v>
+        <v>12.21491484027812</v>
       </c>
       <c r="M11" t="n">
-        <v>27.12238855716249</v>
+        <v>27.12238855716246</v>
       </c>
       <c r="N11" t="n">
-        <v>42.02986227404685</v>
+        <v>42.02986227404679</v>
       </c>
       <c r="O11" t="n">
-        <v>54.87532469310613</v>
+        <v>54.87532469310607</v>
       </c>
       <c r="P11" t="n">
-        <v>60.23221703791658</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.23221703791658</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="R11" t="n">
-        <v>60.23221703791658</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="S11" t="n">
-        <v>45.02206122026088</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T11" t="n">
-        <v>45.02206122026088</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="U11" t="n">
-        <v>45.02206122026088</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="V11" t="n">
-        <v>45.02206122026088</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="W11" t="n">
-        <v>45.02206122026088</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="X11" t="n">
-        <v>45.02206122026088</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="Y11" t="n">
-        <v>45.02206122026088</v>
+        <v>31.62495597606969</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.204644340758332</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="C12" t="n">
-        <v>1.204644340758332</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="D12" t="n">
-        <v>1.204644340758332</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="E12" t="n">
-        <v>1.204644340758332</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="F12" t="n">
-        <v>1.204644340758332</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="G12" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H12" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I12" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J12" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K12" t="n">
-        <v>4.59811586845191</v>
+        <v>4.598115868451898</v>
       </c>
       <c r="L12" t="n">
-        <v>7.000732579722424</v>
+        <v>16.68847005554573</v>
       </c>
       <c r="M12" t="n">
-        <v>21.90820629660678</v>
+        <v>21.90820629660674</v>
       </c>
       <c r="N12" t="n">
-        <v>36.81568001349113</v>
+        <v>36.81568001349108</v>
       </c>
       <c r="O12" t="n">
-        <v>51.54902890335271</v>
+        <v>51.54902890335264</v>
       </c>
       <c r="P12" t="n">
-        <v>60.23221703791658</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="Q12" t="n">
-        <v>60.23221703791658</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="R12" t="n">
-        <v>46.35086325804113</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="S12" t="n">
-        <v>31.14070744038543</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="T12" t="n">
-        <v>15.93055162272972</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="U12" t="n">
-        <v>1.204644340758332</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="V12" t="n">
-        <v>1.204644340758332</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="W12" t="n">
-        <v>1.204644340758332</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="X12" t="n">
-        <v>1.204644340758332</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.204644340758332</v>
+        <v>31.62495597606969</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="M13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="N13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="O13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="P13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="R13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="S13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="T13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="U13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="V13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="W13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.71921896127647</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="C14" t="n">
-        <v>1.204644340758331</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="D14" t="n">
-        <v>1.204644340758331</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="E14" t="n">
-        <v>1.204644340758331</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="F14" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G14" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H14" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I14" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J14" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K14" t="n">
-        <v>3.442330717834881</v>
+        <v>3.442330717834878</v>
       </c>
       <c r="L14" t="n">
-        <v>12.21491484027816</v>
+        <v>12.21491484027813</v>
       </c>
       <c r="M14" t="n">
-        <v>27.12238855716251</v>
+        <v>27.12238855716246</v>
       </c>
       <c r="N14" t="n">
-        <v>42.02986227404682</v>
+        <v>42.0298622740468</v>
       </c>
       <c r="O14" t="n">
-        <v>54.87532469310611</v>
+        <v>54.87532469310609</v>
       </c>
       <c r="P14" t="n">
-        <v>60.23221703791657</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.34968641424358</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R14" t="n">
-        <v>56.34968641424358</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S14" t="n">
-        <v>56.34968641424358</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="T14" t="n">
-        <v>41.13953059658787</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="U14" t="n">
-        <v>25.92937477893217</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="V14" t="n">
-        <v>25.92937477893217</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="W14" t="n">
-        <v>10.71921896127647</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="X14" t="n">
-        <v>10.71921896127647</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.71921896127647</v>
+        <v>60.23221703791651</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>46.35086325804112</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="C15" t="n">
-        <v>37.18069970810483</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="D15" t="n">
-        <v>37.18069970810483</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="E15" t="n">
-        <v>37.18069970810483</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F15" t="n">
-        <v>21.97054389044913</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G15" t="n">
-        <v>6.760388072793427</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H15" t="n">
-        <v>6.760388072793427</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I15" t="n">
-        <v>6.760388072793427</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J15" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K15" t="n">
-        <v>1.204644340758331</v>
+        <v>4.598115868451894</v>
       </c>
       <c r="L15" t="n">
-        <v>13.29499852785217</v>
+        <v>16.68847005554572</v>
       </c>
       <c r="M15" t="n">
-        <v>28.20247224473653</v>
+        <v>21.90820629660677</v>
       </c>
       <c r="N15" t="n">
-        <v>36.81568001349112</v>
+        <v>36.8156800134911</v>
       </c>
       <c r="O15" t="n">
-        <v>51.5490289033527</v>
+        <v>51.54902890335266</v>
       </c>
       <c r="P15" t="n">
-        <v>60.23221703791657</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q15" t="n">
-        <v>60.23221703791657</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R15" t="n">
-        <v>46.35086325804112</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S15" t="n">
-        <v>46.35086325804112</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="T15" t="n">
-        <v>46.35086325804112</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="U15" t="n">
-        <v>46.35086325804112</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="V15" t="n">
-        <v>46.35086325804112</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="W15" t="n">
-        <v>46.35086325804112</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="X15" t="n">
-        <v>46.35086325804112</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="Y15" t="n">
-        <v>46.35086325804112</v>
+        <v>14.60174958494945</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="M16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="N16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="O16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="P16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="R16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="S16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="T16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="U16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="V16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="W16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.204644340758331</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25.62796184383908</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="C17" t="n">
         <v>1.88077703672355</v>
@@ -5518,49 +5518,49 @@
         <v>1.88077703672355</v>
       </c>
       <c r="K17" t="n">
-        <v>8.415911685442893</v>
+        <v>8.415911685442902</v>
       </c>
       <c r="L17" t="n">
-        <v>22.51986039522946</v>
+        <v>22.51986039522947</v>
       </c>
       <c r="M17" t="n">
-        <v>43.35950445951392</v>
+        <v>43.35950445951394</v>
       </c>
       <c r="N17" t="n">
-        <v>65.28609961349596</v>
+        <v>65.28609961349599</v>
       </c>
       <c r="O17" t="n">
-        <v>83.82378169965435</v>
+        <v>83.82378169965436</v>
       </c>
       <c r="P17" t="n">
-        <v>94.03885183617749</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q17" t="n">
-        <v>94.03885183617749</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="R17" t="n">
-        <v>94.03885183617749</v>
+        <v>79.78487994599575</v>
       </c>
       <c r="S17" t="n">
-        <v>94.03885183617749</v>
+        <v>56.03769513888022</v>
       </c>
       <c r="T17" t="n">
-        <v>94.03885183617749</v>
+        <v>56.03769513888022</v>
       </c>
       <c r="U17" t="n">
-        <v>94.03885183617749</v>
+        <v>32.29051033176469</v>
       </c>
       <c r="V17" t="n">
-        <v>94.03885183617749</v>
+        <v>8.543325524649163</v>
       </c>
       <c r="W17" t="n">
-        <v>94.03885183617749</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="X17" t="n">
-        <v>70.29166702906195</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.54448222194642</v>
+        <v>1.88077703672355</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>39.57962849585839</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="C18" t="n">
-        <v>39.57962849585839</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="D18" t="n">
-        <v>39.57962849585839</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="E18" t="n">
-        <v>39.57962849585839</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="F18" t="n">
-        <v>39.57962849585839</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="G18" t="n">
-        <v>39.57962849585839</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="H18" t="n">
-        <v>15.83244368874287</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I18" t="n">
-        <v>5.694058274557067</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J18" t="n">
         <v>1.88077703672355</v>
@@ -5603,7 +5603,7 @@
         <v>24.2082790785488</v>
       </c>
       <c r="M18" t="n">
-        <v>46.04269444771657</v>
+        <v>46.04269444771658</v>
       </c>
       <c r="N18" t="n">
         <v>62.86984279257508</v>
@@ -5618,28 +5618,28 @@
         <v>94.0388518361775</v>
       </c>
       <c r="R18" t="n">
-        <v>81.30258412788264</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="S18" t="n">
-        <v>57.55539932076711</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="T18" t="n">
-        <v>39.57962849585839</v>
+        <v>70.29166702906197</v>
       </c>
       <c r="U18" t="n">
-        <v>39.57962849585839</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="V18" t="n">
-        <v>39.57962849585839</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="W18" t="n">
-        <v>39.57962849585839</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="X18" t="n">
-        <v>39.57962849585839</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="Y18" t="n">
-        <v>39.57962849585839</v>
+        <v>46.54448222194644</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="C19" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="D19" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="E19" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="F19" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="G19" t="n">
         <v>1.88077703672355</v>
@@ -5685,40 +5685,40 @@
         <v>3.005035947119205</v>
       </c>
       <c r="N19" t="n">
-        <v>5.096769994497208</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="O19" t="n">
-        <v>5.096769994497208</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="P19" t="n">
-        <v>5.096769994497208</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.096769994497208</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="R19" t="n">
-        <v>5.096769994497208</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="S19" t="n">
-        <v>5.096769994497208</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="T19" t="n">
-        <v>5.096769994497208</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="U19" t="n">
-        <v>5.096769994497208</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="V19" t="n">
-        <v>5.096769994497208</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="W19" t="n">
-        <v>5.096769994497208</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="X19" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.88077703672355</v>
+        <v>73.12233145807016</v>
       </c>
       <c r="C20" t="n">
-        <v>1.88077703672355</v>
+        <v>73.12233145807016</v>
       </c>
       <c r="D20" t="n">
-        <v>1.88077703672355</v>
+        <v>73.12233145807016</v>
       </c>
       <c r="E20" t="n">
-        <v>1.88077703672355</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="F20" t="n">
-        <v>1.88077703672355</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="G20" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="H20" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="I20" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="J20" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="K20" t="n">
-        <v>8.4159116854429</v>
+        <v>8.415911685442898</v>
       </c>
       <c r="L20" t="n">
-        <v>22.51986039522948</v>
+        <v>22.51986039522947</v>
       </c>
       <c r="M20" t="n">
-        <v>43.35950445951396</v>
+        <v>43.35950445951397</v>
       </c>
       <c r="N20" t="n">
-        <v>65.28609961349599</v>
+        <v>65.28609961349601</v>
       </c>
       <c r="O20" t="n">
-        <v>83.82378169965435</v>
+        <v>83.82378169965438</v>
       </c>
       <c r="P20" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="Q20" t="n">
-        <v>93.87868545880362</v>
+        <v>93.87868545880364</v>
       </c>
       <c r="R20" t="n">
-        <v>79.62471356862187</v>
+        <v>93.87868545880364</v>
       </c>
       <c r="S20" t="n">
-        <v>79.62471356862187</v>
+        <v>93.87868545880364</v>
       </c>
       <c r="T20" t="n">
-        <v>73.12233145807014</v>
+        <v>93.87868545880364</v>
       </c>
       <c r="U20" t="n">
-        <v>73.12233145807014</v>
+        <v>73.12233145807016</v>
       </c>
       <c r="V20" t="n">
-        <v>73.12233145807014</v>
+        <v>73.12233145807016</v>
       </c>
       <c r="W20" t="n">
-        <v>49.37514665095461</v>
+        <v>73.12233145807016</v>
       </c>
       <c r="X20" t="n">
-        <v>25.62796184383908</v>
+        <v>73.12233145807016</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.88077703672355</v>
+        <v>73.12233145807016</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>35.76634725802488</v>
+        <v>33.80821451365159</v>
       </c>
       <c r="C21" t="n">
-        <v>12.01916245090935</v>
+        <v>33.80821451365159</v>
       </c>
       <c r="D21" t="n">
-        <v>12.01916245090935</v>
+        <v>33.80821451365159</v>
       </c>
       <c r="E21" t="n">
-        <v>12.01916245090935</v>
+        <v>33.80821451365159</v>
       </c>
       <c r="F21" t="n">
-        <v>12.01916245090935</v>
+        <v>29.4412430816726</v>
       </c>
       <c r="G21" t="n">
-        <v>12.01916245090935</v>
+        <v>5.694058274557064</v>
       </c>
       <c r="H21" t="n">
-        <v>12.01916245090935</v>
+        <v>5.694058274557064</v>
       </c>
       <c r="I21" t="n">
-        <v>1.88077703672355</v>
+        <v>5.694058274557064</v>
       </c>
       <c r="J21" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="K21" t="n">
         <v>8.19312939818548</v>
@@ -5840,43 +5840,43 @@
         <v>24.2082790785488</v>
       </c>
       <c r="M21" t="n">
-        <v>46.04269444771658</v>
+        <v>39.59522696312118</v>
       </c>
       <c r="N21" t="n">
-        <v>62.86984279257508</v>
+        <v>62.86984279257511</v>
       </c>
       <c r="O21" t="n">
-        <v>81.90393668038412</v>
+        <v>81.90393668038415</v>
       </c>
       <c r="P21" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="R21" t="n">
-        <v>94.0388518361775</v>
+        <v>81.30258412788267</v>
       </c>
       <c r="S21" t="n">
-        <v>94.0388518361775</v>
+        <v>57.55539932076713</v>
       </c>
       <c r="T21" t="n">
-        <v>94.0388518361775</v>
+        <v>57.55539932076713</v>
       </c>
       <c r="U21" t="n">
-        <v>94.0388518361775</v>
+        <v>57.55539932076713</v>
       </c>
       <c r="V21" t="n">
-        <v>94.0388518361775</v>
+        <v>33.80821451365159</v>
       </c>
       <c r="W21" t="n">
-        <v>70.29166702906197</v>
+        <v>33.80821451365159</v>
       </c>
       <c r="X21" t="n">
-        <v>70.29166702906197</v>
+        <v>33.80821451365159</v>
       </c>
       <c r="Y21" t="n">
-        <v>46.54448222194644</v>
+        <v>33.80821451365159</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.82285887840384</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="C22" t="n">
-        <v>90.82285887840384</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="D22" t="n">
-        <v>90.82285887840384</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="E22" t="n">
-        <v>90.82285887840384</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="F22" t="n">
-        <v>90.82285887840384</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="G22" t="n">
-        <v>90.82285887840384</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="H22" t="n">
-        <v>90.82285887840384</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="I22" t="n">
-        <v>90.82285887840384</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="J22" t="n">
-        <v>90.82285887840384</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="K22" t="n">
-        <v>90.82285887840384</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="L22" t="n">
-        <v>91.11238358755512</v>
+        <v>2.170301745874835</v>
       </c>
       <c r="M22" t="n">
-        <v>91.94711778879949</v>
+        <v>3.005035947119206</v>
       </c>
       <c r="N22" t="n">
-        <v>94.0388518361775</v>
+        <v>5.096769994497214</v>
       </c>
       <c r="O22" t="n">
-        <v>94.0388518361775</v>
+        <v>5.096769994497214</v>
       </c>
       <c r="P22" t="n">
-        <v>94.0388518361775</v>
+        <v>5.096769994497214</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.0388518361775</v>
+        <v>5.096769994497214</v>
       </c>
       <c r="R22" t="n">
-        <v>94.0388518361775</v>
+        <v>5.096769994497214</v>
       </c>
       <c r="S22" t="n">
-        <v>94.0388518361775</v>
+        <v>5.096769994497214</v>
       </c>
       <c r="T22" t="n">
-        <v>94.0388518361775</v>
+        <v>5.096769994497214</v>
       </c>
       <c r="U22" t="n">
-        <v>94.0388518361775</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="V22" t="n">
-        <v>94.0388518361775</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="W22" t="n">
-        <v>90.82285887840384</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="X22" t="n">
-        <v>90.82285887840384</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.82285887840384</v>
+        <v>1.880777036723551</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.1160595275172</v>
+        <v>51.1542152620535</v>
       </c>
       <c r="C23" t="n">
-        <v>50.1160595275172</v>
+        <v>51.1542152620535</v>
       </c>
       <c r="D23" t="n">
-        <v>50.1160595275172</v>
+        <v>51.1542152620535</v>
       </c>
       <c r="E23" t="n">
-        <v>50.1160595275172</v>
+        <v>51.1542152620535</v>
       </c>
       <c r="F23" t="n">
-        <v>26.01252955083521</v>
+        <v>51.1542152620535</v>
       </c>
       <c r="G23" t="n">
-        <v>26.01252955083521</v>
+        <v>27.0506852853715</v>
       </c>
       <c r="H23" t="n">
-        <v>1.908999574153214</v>
+        <v>2.947155308689501</v>
       </c>
       <c r="I23" t="n">
-        <v>1.908999574153214</v>
+        <v>2.947155308689501</v>
       </c>
       <c r="J23" t="n">
         <v>1.908999574153214</v>
       </c>
       <c r="K23" t="n">
-        <v>8.629045391172408</v>
+        <v>8.629045391172422</v>
       </c>
       <c r="L23" t="n">
-        <v>22.96239275619894</v>
+        <v>22.96239275619896</v>
       </c>
       <c r="M23" t="n">
-        <v>44.05728702482671</v>
+        <v>44.05728702482672</v>
       </c>
       <c r="N23" t="n">
-        <v>66.24326259831417</v>
+        <v>66.24326259831419</v>
       </c>
       <c r="O23" t="n">
-        <v>85.02587025944878</v>
+        <v>85.02587025944879</v>
       </c>
       <c r="P23" t="n">
-        <v>95.44997870766069</v>
+        <v>95.4499787076607</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.44997870766069</v>
+        <v>95.4499787076607</v>
       </c>
       <c r="R23" t="n">
-        <v>95.44997870766069</v>
+        <v>81.2891744039425</v>
       </c>
       <c r="S23" t="n">
-        <v>71.34644873097869</v>
+        <v>81.2891744039425</v>
       </c>
       <c r="T23" t="n">
-        <v>71.34644873097869</v>
+        <v>81.2891744039425</v>
       </c>
       <c r="U23" t="n">
-        <v>71.34644873097869</v>
+        <v>81.2891744039425</v>
       </c>
       <c r="V23" t="n">
-        <v>71.34644873097869</v>
+        <v>75.2577452387355</v>
       </c>
       <c r="W23" t="n">
-        <v>71.34644873097869</v>
+        <v>75.2577452387355</v>
       </c>
       <c r="X23" t="n">
-        <v>50.1160595275172</v>
+        <v>51.1542152620535</v>
       </c>
       <c r="Y23" t="n">
-        <v>50.1160595275172</v>
+        <v>51.1542152620535</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>47.2429187542967</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="C24" t="n">
-        <v>47.2429187542967</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="D24" t="n">
-        <v>23.1393887776147</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="E24" t="n">
-        <v>23.1393887776147</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="F24" t="n">
-        <v>23.1393887776147</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="G24" t="n">
-        <v>5.647305907076863</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="H24" t="n">
-        <v>5.647305907076863</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="I24" t="n">
-        <v>5.647305907076863</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="J24" t="n">
         <v>1.908999574153214</v>
       </c>
       <c r="K24" t="n">
-        <v>8.346945923252331</v>
+        <v>2.008730241931367</v>
       </c>
       <c r="L24" t="n">
-        <v>24.5309722192546</v>
+        <v>18.19275653793364</v>
       </c>
       <c r="M24" t="n">
-        <v>46.56245863347766</v>
+        <v>40.2242429521567</v>
       </c>
       <c r="N24" t="n">
-        <v>70.18632836362369</v>
+        <v>63.84811268230273</v>
       </c>
       <c r="O24" t="n">
-        <v>89.40547527170473</v>
+        <v>83.06725959038377</v>
       </c>
       <c r="P24" t="n">
-        <v>95.44997870766069</v>
+        <v>95.35069610950788</v>
       </c>
       <c r="Q24" t="n">
-        <v>95.44997870766069</v>
+        <v>95.4499787076607</v>
       </c>
       <c r="R24" t="n">
-        <v>95.44997870766069</v>
+        <v>95.4499787076607</v>
       </c>
       <c r="S24" t="n">
-        <v>95.44997870766069</v>
+        <v>95.4499787076607</v>
       </c>
       <c r="T24" t="n">
-        <v>95.44997870766069</v>
+        <v>74.21958950419921</v>
       </c>
       <c r="U24" t="n">
-        <v>95.44997870766069</v>
+        <v>74.21958950419921</v>
       </c>
       <c r="V24" t="n">
-        <v>71.34644873097869</v>
+        <v>50.11605952751721</v>
       </c>
       <c r="W24" t="n">
-        <v>71.34644873097869</v>
+        <v>50.11605952751721</v>
       </c>
       <c r="X24" t="n">
-        <v>47.2429187542967</v>
+        <v>26.01252955083521</v>
       </c>
       <c r="Y24" t="n">
-        <v>47.2429187542967</v>
+        <v>1.908999574153214</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.9350447722321</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="C25" t="n">
-        <v>91.9350447722321</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="D25" t="n">
-        <v>91.9350447722321</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="E25" t="n">
-        <v>91.9350447722321</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="F25" t="n">
-        <v>91.9350447722321</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="G25" t="n">
-        <v>91.9350447722321</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="H25" t="n">
-        <v>91.9350447722321</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="I25" t="n">
-        <v>91.9350447722321</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="J25" t="n">
-        <v>91.9350447722321</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="K25" t="n">
-        <v>91.9350447722321</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="L25" t="n">
-        <v>92.32151337883667</v>
+        <v>2.295468180757774</v>
       </c>
       <c r="M25" t="n">
-        <v>93.2584613274081</v>
+        <v>3.232416129329207</v>
       </c>
       <c r="N25" t="n">
-        <v>95.44997870766069</v>
+        <v>5.423933509581798</v>
       </c>
       <c r="O25" t="n">
-        <v>95.44997870766069</v>
+        <v>5.423933509581798</v>
       </c>
       <c r="P25" t="n">
-        <v>95.44997870766069</v>
+        <v>5.423933509581798</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.44997870766069</v>
+        <v>5.423933509581798</v>
       </c>
       <c r="R25" t="n">
-        <v>95.44997870766069</v>
+        <v>5.423933509581798</v>
       </c>
       <c r="S25" t="n">
-        <v>95.44997870766069</v>
+        <v>5.423933509581798</v>
       </c>
       <c r="T25" t="n">
-        <v>95.44997870766069</v>
+        <v>5.423933509581798</v>
       </c>
       <c r="U25" t="n">
-        <v>95.44997870766069</v>
+        <v>5.423933509581798</v>
       </c>
       <c r="V25" t="n">
-        <v>95.44997870766069</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="W25" t="n">
-        <v>95.44997870766069</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="X25" t="n">
-        <v>95.44997870766069</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="Y25" t="n">
-        <v>95.44997870766069</v>
+        <v>1.908999574153214</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>24.81707552368263</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="C26" t="n">
-        <v>24.81707552368263</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="D26" t="n">
-        <v>24.81707552368263</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="E26" t="n">
-        <v>24.81707552368263</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="F26" t="n">
-        <v>24.81707552368263</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="G26" t="n">
-        <v>24.81707552368263</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="H26" t="n">
-        <v>24.81707552368263</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="I26" t="n">
-        <v>2.947155308689501</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="J26" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="K26" t="n">
-        <v>8.629045391172411</v>
+        <v>8.629045391172383</v>
       </c>
       <c r="L26" t="n">
-        <v>22.96239275619894</v>
+        <v>22.96239275619897</v>
       </c>
       <c r="M26" t="n">
-        <v>44.05728702482671</v>
+        <v>44.05728702482673</v>
       </c>
       <c r="N26" t="n">
-        <v>66.24326259831416</v>
+        <v>66.2432625983142</v>
       </c>
       <c r="O26" t="n">
-        <v>85.02587025944879</v>
+        <v>85.02587025944882</v>
       </c>
       <c r="P26" t="n">
-        <v>95.4499787076607</v>
+        <v>95.44997870766073</v>
       </c>
       <c r="Q26" t="n">
-        <v>95.4499787076607</v>
+        <v>95.44997870766073</v>
       </c>
       <c r="R26" t="n">
-        <v>95.4499787076607</v>
+        <v>81.28917440394252</v>
       </c>
       <c r="S26" t="n">
-        <v>95.4499787076607</v>
+        <v>57.18564442726052</v>
       </c>
       <c r="T26" t="n">
-        <v>95.4499787076607</v>
+        <v>57.18564442726052</v>
       </c>
       <c r="U26" t="n">
-        <v>95.4499787076607</v>
+        <v>33.08211445057852</v>
       </c>
       <c r="V26" t="n">
-        <v>95.4499787076607</v>
+        <v>8.978584473896511</v>
       </c>
       <c r="W26" t="n">
-        <v>71.34644873097871</v>
+        <v>8.978584473896511</v>
       </c>
       <c r="X26" t="n">
-        <v>48.92060550036463</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="Y26" t="n">
-        <v>48.92060550036463</v>
+        <v>1.908999574153215</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10.4523919831077</v>
+        <v>26.01252955083522</v>
       </c>
       <c r="C27" t="n">
-        <v>1.908999574153214</v>
+        <v>26.01252955083522</v>
       </c>
       <c r="D27" t="n">
-        <v>1.908999574153214</v>
+        <v>26.01252955083522</v>
       </c>
       <c r="E27" t="n">
-        <v>1.908999574153214</v>
+        <v>26.01252955083522</v>
       </c>
       <c r="F27" t="n">
-        <v>1.908999574153214</v>
+        <v>26.01252955083522</v>
       </c>
       <c r="G27" t="n">
-        <v>1.908999574153214</v>
+        <v>26.01252955083522</v>
       </c>
       <c r="H27" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="I27" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="J27" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="K27" t="n">
-        <v>2.008730241931367</v>
+        <v>2.008730241931396</v>
       </c>
       <c r="L27" t="n">
-        <v>18.19275653793364</v>
+        <v>18.19275653793366</v>
       </c>
       <c r="M27" t="n">
-        <v>40.2242429521567</v>
+        <v>40.22424295215673</v>
       </c>
       <c r="N27" t="n">
-        <v>63.84811268230273</v>
+        <v>63.84811268230276</v>
       </c>
       <c r="O27" t="n">
-        <v>83.06725959038377</v>
+        <v>83.0672595903838</v>
       </c>
       <c r="P27" t="n">
-        <v>95.35069610950788</v>
+        <v>95.35069610950791</v>
       </c>
       <c r="Q27" t="n">
-        <v>95.4499787076607</v>
+        <v>95.44997870766073</v>
       </c>
       <c r="R27" t="n">
-        <v>82.76298191315369</v>
+        <v>95.44997870766073</v>
       </c>
       <c r="S27" t="n">
-        <v>58.6594519364717</v>
+        <v>71.34644873097872</v>
       </c>
       <c r="T27" t="n">
-        <v>58.6594519364717</v>
+        <v>47.24291875429672</v>
       </c>
       <c r="U27" t="n">
-        <v>58.6594519364717</v>
+        <v>26.01252955083522</v>
       </c>
       <c r="V27" t="n">
-        <v>34.5559219597897</v>
+        <v>26.01252955083522</v>
       </c>
       <c r="W27" t="n">
-        <v>34.5559219597897</v>
+        <v>26.01252955083522</v>
       </c>
       <c r="X27" t="n">
-        <v>34.5559219597897</v>
+        <v>26.01252955083522</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.4523919831077</v>
+        <v>26.01252955083522</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.423933509581798</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="C28" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="D28" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="E28" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="F28" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="G28" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="H28" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="I28" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="J28" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="K28" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="L28" t="n">
         <v>2.295468180757774</v>
       </c>
       <c r="M28" t="n">
-        <v>3.232416129329207</v>
+        <v>3.232416129329208</v>
       </c>
       <c r="N28" t="n">
-        <v>5.423933509581798</v>
+        <v>5.423933509581799</v>
       </c>
       <c r="O28" t="n">
-        <v>5.423933509581798</v>
+        <v>5.423933509581799</v>
       </c>
       <c r="P28" t="n">
-        <v>5.423933509581798</v>
+        <v>5.423933509581799</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.423933509581798</v>
+        <v>5.423933509581799</v>
       </c>
       <c r="R28" t="n">
-        <v>5.423933509581798</v>
+        <v>5.423933509581799</v>
       </c>
       <c r="S28" t="n">
-        <v>5.423933509581798</v>
+        <v>5.423933509581799</v>
       </c>
       <c r="T28" t="n">
-        <v>5.423933509581798</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="U28" t="n">
-        <v>5.423933509581798</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="V28" t="n">
-        <v>5.423933509581798</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="W28" t="n">
-        <v>5.423933509581798</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="X28" t="n">
-        <v>5.423933509581798</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.423933509581798</v>
+        <v>1.908999574153215</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>71.34644873097865</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="C29" t="n">
-        <v>47.24291875429667</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="D29" t="n">
-        <v>47.24291875429667</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="E29" t="n">
-        <v>23.13938877761469</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="F29" t="n">
-        <v>23.13938877761469</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="G29" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="H29" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="I29" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="J29" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="K29" t="n">
-        <v>8.629045391172408</v>
+        <v>8.62904539117244</v>
       </c>
       <c r="L29" t="n">
-        <v>22.96239275619891</v>
+        <v>22.96239275619899</v>
       </c>
       <c r="M29" t="n">
-        <v>44.05728702482668</v>
+        <v>44.05728702482673</v>
       </c>
       <c r="N29" t="n">
-        <v>66.24326259831412</v>
+        <v>66.2432625983142</v>
       </c>
       <c r="O29" t="n">
-        <v>85.02587025944872</v>
+        <v>85.02587025944879</v>
       </c>
       <c r="P29" t="n">
-        <v>95.44997870766063</v>
+        <v>95.44997870766073</v>
       </c>
       <c r="Q29" t="n">
-        <v>95.44997870766063</v>
+        <v>95.44997870766073</v>
       </c>
       <c r="R29" t="n">
-        <v>95.44997870766063</v>
+        <v>95.44997870766073</v>
       </c>
       <c r="S29" t="n">
-        <v>71.34644873097865</v>
+        <v>71.34644873097872</v>
       </c>
       <c r="T29" t="n">
-        <v>71.34644873097865</v>
+        <v>47.24291875429672</v>
       </c>
       <c r="U29" t="n">
-        <v>71.34644873097865</v>
+        <v>23.13938877761471</v>
       </c>
       <c r="V29" t="n">
-        <v>71.34644873097865</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="W29" t="n">
-        <v>71.34644873097865</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="X29" t="n">
-        <v>71.34644873097865</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="Y29" t="n">
-        <v>71.34644873097865</v>
+        <v>1.908999574153215</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>23.13938877761469</v>
+        <v>74.21958950419923</v>
       </c>
       <c r="C30" t="n">
-        <v>23.13938877761469</v>
+        <v>50.11605952751722</v>
       </c>
       <c r="D30" t="n">
-        <v>1.908999574153213</v>
+        <v>26.01252955083522</v>
       </c>
       <c r="E30" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="F30" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="G30" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="H30" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="I30" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="J30" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="K30" t="n">
-        <v>8.34694592325233</v>
+        <v>8.346945923252328</v>
       </c>
       <c r="L30" t="n">
-        <v>24.5309722192546</v>
+        <v>24.53097221925459</v>
       </c>
       <c r="M30" t="n">
-        <v>46.56245863347766</v>
+        <v>46.56245863347765</v>
       </c>
       <c r="N30" t="n">
-        <v>70.18632836362366</v>
+        <v>70.18632836362367</v>
       </c>
       <c r="O30" t="n">
-        <v>83.16654218853651</v>
+        <v>89.40547527170472</v>
       </c>
       <c r="P30" t="n">
-        <v>95.44997870766063</v>
+        <v>95.44997870766073</v>
       </c>
       <c r="Q30" t="n">
-        <v>95.44997870766063</v>
+        <v>95.44997870766073</v>
       </c>
       <c r="R30" t="n">
-        <v>95.44997870766063</v>
+        <v>82.76298191315372</v>
       </c>
       <c r="S30" t="n">
-        <v>95.44997870766063</v>
+        <v>82.76298191315372</v>
       </c>
       <c r="T30" t="n">
-        <v>95.44997870766063</v>
+        <v>82.76298191315372</v>
       </c>
       <c r="U30" t="n">
-        <v>95.44997870766063</v>
+        <v>82.76298191315372</v>
       </c>
       <c r="V30" t="n">
-        <v>95.44997870766063</v>
+        <v>82.76298191315372</v>
       </c>
       <c r="W30" t="n">
-        <v>71.34644873097865</v>
+        <v>82.76298191315372</v>
       </c>
       <c r="X30" t="n">
-        <v>47.24291875429667</v>
+        <v>82.76298191315372</v>
       </c>
       <c r="Y30" t="n">
-        <v>23.13938877761469</v>
+        <v>82.76298191315372</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="C31" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="D31" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="E31" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="F31" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="G31" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="H31" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="I31" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="J31" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="K31" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="L31" t="n">
-        <v>2.295468180757772</v>
+        <v>2.295468180757771</v>
       </c>
       <c r="M31" t="n">
-        <v>3.232416129329205</v>
+        <v>3.2324161293292</v>
       </c>
       <c r="N31" t="n">
-        <v>5.423933509581796</v>
+        <v>5.423933509581788</v>
       </c>
       <c r="O31" t="n">
-        <v>5.423933509581796</v>
+        <v>5.423933509581788</v>
       </c>
       <c r="P31" t="n">
-        <v>5.423933509581796</v>
+        <v>5.423933509581788</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.423933509581796</v>
+        <v>5.423933509581788</v>
       </c>
       <c r="R31" t="n">
-        <v>5.423933509581796</v>
+        <v>5.423933509581788</v>
       </c>
       <c r="S31" t="n">
-        <v>5.423933509581796</v>
+        <v>5.423933509581788</v>
       </c>
       <c r="T31" t="n">
-        <v>5.423933509581796</v>
+        <v>5.423933509581788</v>
       </c>
       <c r="U31" t="n">
-        <v>5.423933509581796</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="V31" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="W31" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="X31" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.908999574153213</v>
+        <v>1.908999574153215</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>26.01252955083519</v>
+        <v>47.24291875429667</v>
       </c>
       <c r="C32" t="n">
-        <v>26.01252955083519</v>
+        <v>23.13938877761469</v>
       </c>
       <c r="D32" t="n">
-        <v>26.01252955083519</v>
+        <v>23.13938877761469</v>
       </c>
       <c r="E32" t="n">
-        <v>1.908999574153213</v>
+        <v>23.13938877761469</v>
       </c>
       <c r="F32" t="n">
-        <v>1.908999574153213</v>
+        <v>2.947155308689503</v>
       </c>
       <c r="G32" t="n">
-        <v>1.908999574153213</v>
+        <v>2.947155308689503</v>
       </c>
       <c r="H32" t="n">
-        <v>1.908999574153213</v>
+        <v>2.947155308689503</v>
       </c>
       <c r="I32" t="n">
-        <v>1.908999574153213</v>
+        <v>2.947155308689503</v>
       </c>
       <c r="J32" t="n">
         <v>1.908999574153213</v>
       </c>
       <c r="K32" t="n">
-        <v>8.629045391172426</v>
+        <v>8.629045391172415</v>
       </c>
       <c r="L32" t="n">
-        <v>22.96239275619896</v>
+        <v>22.96239275619894</v>
       </c>
       <c r="M32" t="n">
-        <v>44.05728702482671</v>
+        <v>44.05728702482669</v>
       </c>
       <c r="N32" t="n">
         <v>66.24326259831415</v>
       </c>
       <c r="O32" t="n">
-        <v>85.02587025944872</v>
+        <v>85.02587025944874</v>
       </c>
       <c r="P32" t="n">
         <v>95.44997870766063</v>
@@ -6724,28 +6724,28 @@
         <v>95.44997870766063</v>
       </c>
       <c r="R32" t="n">
-        <v>81.28917440394241</v>
+        <v>95.44997870766063</v>
       </c>
       <c r="S32" t="n">
-        <v>74.21958950419915</v>
+        <v>71.34644873097865</v>
       </c>
       <c r="T32" t="n">
-        <v>74.21958950419915</v>
+        <v>71.34644873097865</v>
       </c>
       <c r="U32" t="n">
-        <v>74.21958950419915</v>
+        <v>47.24291875429667</v>
       </c>
       <c r="V32" t="n">
-        <v>74.21958950419915</v>
+        <v>47.24291875429667</v>
       </c>
       <c r="W32" t="n">
-        <v>50.11605952751717</v>
+        <v>47.24291875429667</v>
       </c>
       <c r="X32" t="n">
-        <v>50.11605952751717</v>
+        <v>47.24291875429667</v>
       </c>
       <c r="Y32" t="n">
-        <v>26.01252955083519</v>
+        <v>47.24291875429667</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>58.65945193647164</v>
+        <v>50.11605952751717</v>
       </c>
       <c r="C33" t="n">
-        <v>34.55592195978966</v>
+        <v>50.11605952751717</v>
       </c>
       <c r="D33" t="n">
-        <v>34.55592195978966</v>
+        <v>50.11605952751717</v>
       </c>
       <c r="E33" t="n">
-        <v>34.55592195978966</v>
+        <v>50.11605952751717</v>
       </c>
       <c r="F33" t="n">
-        <v>34.55592195978966</v>
+        <v>50.11605952751717</v>
       </c>
       <c r="G33" t="n">
-        <v>10.45239198310768</v>
+        <v>26.01252955083519</v>
       </c>
       <c r="H33" t="n">
-        <v>10.45239198310768</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="I33" t="n">
         <v>1.908999574153213</v>
@@ -6782,13 +6782,13 @@
         <v>1.908999574153213</v>
       </c>
       <c r="K33" t="n">
-        <v>8.346945923252326</v>
+        <v>2.008730241931332</v>
       </c>
       <c r="L33" t="n">
-        <v>24.53097221925459</v>
+        <v>18.19275653793359</v>
       </c>
       <c r="M33" t="n">
-        <v>46.56245863347765</v>
+        <v>40.22424295215665</v>
       </c>
       <c r="N33" t="n">
         <v>63.84811268230266</v>
@@ -6803,28 +6803,28 @@
         <v>95.44997870766063</v>
       </c>
       <c r="R33" t="n">
-        <v>82.76298191315362</v>
+        <v>95.44997870766063</v>
       </c>
       <c r="S33" t="n">
-        <v>58.65945193647164</v>
+        <v>74.21958950419915</v>
       </c>
       <c r="T33" t="n">
-        <v>58.65945193647164</v>
+        <v>74.21958950419915</v>
       </c>
       <c r="U33" t="n">
-        <v>58.65945193647164</v>
+        <v>74.21958950419915</v>
       </c>
       <c r="V33" t="n">
-        <v>58.65945193647164</v>
+        <v>50.11605952751717</v>
       </c>
       <c r="W33" t="n">
-        <v>58.65945193647164</v>
+        <v>50.11605952751717</v>
       </c>
       <c r="X33" t="n">
-        <v>58.65945193647164</v>
+        <v>50.11605952751717</v>
       </c>
       <c r="Y33" t="n">
-        <v>58.65945193647164</v>
+        <v>50.11605952751717</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.44997870766063</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="C34" t="n">
-        <v>95.44997870766063</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="D34" t="n">
-        <v>95.44997870766063</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="E34" t="n">
-        <v>95.44997870766063</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="F34" t="n">
-        <v>91.93504477223206</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="G34" t="n">
-        <v>91.93504477223206</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="H34" t="n">
-        <v>91.93504477223206</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="I34" t="n">
-        <v>91.93504477223206</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="J34" t="n">
-        <v>91.93504477223206</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="K34" t="n">
-        <v>91.93504477223206</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="L34" t="n">
-        <v>92.32151337883661</v>
+        <v>2.295468180757768</v>
       </c>
       <c r="M34" t="n">
-        <v>93.25846132740804</v>
+        <v>3.232416129329198</v>
       </c>
       <c r="N34" t="n">
-        <v>95.44997870766063</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="O34" t="n">
-        <v>95.44997870766063</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="P34" t="n">
-        <v>95.44997870766063</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.44997870766063</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="R34" t="n">
-        <v>95.44997870766063</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="S34" t="n">
-        <v>95.44997870766063</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="T34" t="n">
-        <v>95.44997870766063</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="U34" t="n">
-        <v>95.44997870766063</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="V34" t="n">
-        <v>95.44997870766063</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="W34" t="n">
-        <v>95.44997870766063</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="X34" t="n">
-        <v>95.44997870766063</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="Y34" t="n">
-        <v>95.44997870766063</v>
+        <v>5.423933509581786</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.908999574153212</v>
+        <v>57.18564442726046</v>
       </c>
       <c r="C35" t="n">
-        <v>1.908999574153212</v>
+        <v>33.08211445057847</v>
       </c>
       <c r="D35" t="n">
-        <v>1.908999574153212</v>
+        <v>8.978584473896483</v>
       </c>
       <c r="E35" t="n">
-        <v>1.908999574153212</v>
+        <v>8.978584473896483</v>
       </c>
       <c r="F35" t="n">
-        <v>1.908999574153212</v>
+        <v>8.978584473896483</v>
       </c>
       <c r="G35" t="n">
-        <v>1.908999574153212</v>
+        <v>8.978584473896483</v>
       </c>
       <c r="H35" t="n">
-        <v>1.908999574153212</v>
+        <v>2.947155308689504</v>
       </c>
       <c r="I35" t="n">
-        <v>1.908999574153212</v>
+        <v>2.947155308689504</v>
       </c>
       <c r="J35" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="K35" t="n">
-        <v>8.629045391172383</v>
+        <v>8.629045391172415</v>
       </c>
       <c r="L35" t="n">
-        <v>22.96239275619891</v>
+        <v>22.96239275619894</v>
       </c>
       <c r="M35" t="n">
-        <v>44.05728702482666</v>
+        <v>44.05728702482669</v>
       </c>
       <c r="N35" t="n">
-        <v>66.24326259831412</v>
+        <v>66.24326259831415</v>
       </c>
       <c r="O35" t="n">
-        <v>85.02587025944871</v>
+        <v>85.02587025944874</v>
       </c>
       <c r="P35" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766068</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.44997870766059</v>
+        <v>95.44997870766068</v>
       </c>
       <c r="R35" t="n">
-        <v>95.44997870766059</v>
+        <v>81.28917440394245</v>
       </c>
       <c r="S35" t="n">
-        <v>95.44997870766059</v>
+        <v>57.18564442726046</v>
       </c>
       <c r="T35" t="n">
-        <v>71.34644873097862</v>
+        <v>57.18564442726046</v>
       </c>
       <c r="U35" t="n">
-        <v>47.24291875429665</v>
+        <v>57.18564442726046</v>
       </c>
       <c r="V35" t="n">
-        <v>47.24291875429665</v>
+        <v>57.18564442726046</v>
       </c>
       <c r="W35" t="n">
-        <v>23.13938877761468</v>
+        <v>57.18564442726046</v>
       </c>
       <c r="X35" t="n">
-        <v>1.908999574153212</v>
+        <v>57.18564442726046</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.908999574153212</v>
+        <v>57.18564442726046</v>
       </c>
     </row>
     <row r="36">
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.908999574153212</v>
+        <v>47.2429187542967</v>
       </c>
       <c r="C36" t="n">
-        <v>1.908999574153212</v>
+        <v>47.2429187542967</v>
       </c>
       <c r="D36" t="n">
-        <v>1.908999574153212</v>
+        <v>47.2429187542967</v>
       </c>
       <c r="E36" t="n">
-        <v>1.908999574153212</v>
+        <v>23.13938877761471</v>
       </c>
       <c r="F36" t="n">
-        <v>1.908999574153212</v>
+        <v>23.13938877761471</v>
       </c>
       <c r="G36" t="n">
-        <v>1.908999574153212</v>
+        <v>23.13938877761471</v>
       </c>
       <c r="H36" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="I36" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="J36" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="K36" t="n">
-        <v>8.346945923252324</v>
+        <v>8.346945923252328</v>
       </c>
       <c r="L36" t="n">
         <v>24.53097221925459</v>
@@ -7028,40 +7028,40 @@
         <v>46.56245863347765</v>
       </c>
       <c r="N36" t="n">
-        <v>63.94739528045544</v>
+        <v>70.18632836362366</v>
       </c>
       <c r="O36" t="n">
-        <v>83.16654218853648</v>
+        <v>89.4054752717047</v>
       </c>
       <c r="P36" t="n">
-        <v>95.44997870766059</v>
+        <v>95.44997870766068</v>
       </c>
       <c r="Q36" t="n">
-        <v>95.44997870766059</v>
+        <v>95.44997870766068</v>
       </c>
       <c r="R36" t="n">
-        <v>95.44997870766059</v>
+        <v>95.44997870766068</v>
       </c>
       <c r="S36" t="n">
-        <v>95.44997870766059</v>
+        <v>71.34644873097869</v>
       </c>
       <c r="T36" t="n">
-        <v>95.44997870766059</v>
+        <v>47.2429187542967</v>
       </c>
       <c r="U36" t="n">
-        <v>71.34644873097862</v>
+        <v>47.2429187542967</v>
       </c>
       <c r="V36" t="n">
-        <v>47.24291875429665</v>
+        <v>47.2429187542967</v>
       </c>
       <c r="W36" t="n">
-        <v>23.13938877761468</v>
+        <v>47.2429187542967</v>
       </c>
       <c r="X36" t="n">
-        <v>1.908999574153212</v>
+        <v>47.2429187542967</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.908999574153212</v>
+        <v>47.2429187542967</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="C37" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="D37" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="E37" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="F37" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="G37" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="H37" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="I37" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="J37" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="K37" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="L37" t="n">
-        <v>2.295468180757767</v>
+        <v>2.295468180757769</v>
       </c>
       <c r="M37" t="n">
-        <v>3.232416129329197</v>
+        <v>3.232416129329199</v>
       </c>
       <c r="N37" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="O37" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="P37" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="R37" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="S37" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="T37" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="U37" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="V37" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="W37" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="X37" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153214</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>26.0125295508352</v>
+        <v>2.947155308689504</v>
       </c>
       <c r="C38" t="n">
-        <v>26.0125295508352</v>
+        <v>2.947155308689504</v>
       </c>
       <c r="D38" t="n">
-        <v>26.0125295508352</v>
+        <v>2.947155308689504</v>
       </c>
       <c r="E38" t="n">
-        <v>26.0125295508352</v>
+        <v>2.947155308689504</v>
       </c>
       <c r="F38" t="n">
-        <v>26.0125295508352</v>
+        <v>2.947155308689504</v>
       </c>
       <c r="G38" t="n">
-        <v>1.908999574153213</v>
+        <v>2.947155308689504</v>
       </c>
       <c r="H38" t="n">
-        <v>1.908999574153213</v>
+        <v>2.947155308689504</v>
       </c>
       <c r="I38" t="n">
-        <v>1.908999574153213</v>
+        <v>2.947155308689504</v>
       </c>
       <c r="J38" t="n">
         <v>1.908999574153213</v>
@@ -7186,13 +7186,13 @@
         <v>44.05728702482669</v>
       </c>
       <c r="N38" t="n">
-        <v>66.24326259831413</v>
+        <v>66.24326259831416</v>
       </c>
       <c r="O38" t="n">
-        <v>85.02587025944874</v>
+        <v>85.02587025944875</v>
       </c>
       <c r="P38" t="n">
-        <v>95.44997870766065</v>
+        <v>95.44997870766066</v>
       </c>
       <c r="Q38" t="n">
         <v>95.44997870766066</v>
@@ -7207,19 +7207,19 @@
         <v>57.18564442726046</v>
       </c>
       <c r="U38" t="n">
+        <v>57.18564442726046</v>
+      </c>
+      <c r="V38" t="n">
         <v>33.08211445057847</v>
       </c>
-      <c r="V38" t="n">
-        <v>26.0125295508352</v>
-      </c>
       <c r="W38" t="n">
-        <v>26.0125295508352</v>
+        <v>8.978584473896486</v>
       </c>
       <c r="X38" t="n">
-        <v>26.0125295508352</v>
+        <v>2.947155308689504</v>
       </c>
       <c r="Y38" t="n">
-        <v>26.0125295508352</v>
+        <v>2.947155308689504</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>71.34644873097868</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="C39" t="n">
-        <v>71.34644873097868</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="D39" t="n">
-        <v>47.2429187542967</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="E39" t="n">
-        <v>47.2429187542967</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="F39" t="n">
-        <v>26.0125295508352</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="G39" t="n">
-        <v>1.908999574153213</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="H39" t="n">
-        <v>1.908999574153213</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="I39" t="n">
-        <v>1.908999574153213</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="J39" t="n">
         <v>1.908999574153213</v>
@@ -7265,10 +7265,10 @@
         <v>46.56245863347765</v>
       </c>
       <c r="N39" t="n">
-        <v>63.94739528045551</v>
+        <v>70.18632836362366</v>
       </c>
       <c r="O39" t="n">
-        <v>83.16654218853655</v>
+        <v>89.4054752717047</v>
       </c>
       <c r="P39" t="n">
         <v>95.44997870766066</v>
@@ -7280,25 +7280,25 @@
         <v>95.44997870766066</v>
       </c>
       <c r="S39" t="n">
-        <v>95.44997870766066</v>
+        <v>71.34644873097868</v>
       </c>
       <c r="T39" t="n">
-        <v>95.44997870766066</v>
+        <v>47.2429187542967</v>
       </c>
       <c r="U39" t="n">
-        <v>95.44997870766066</v>
+        <v>23.13938877761471</v>
       </c>
       <c r="V39" t="n">
-        <v>95.44997870766066</v>
+        <v>23.13938877761471</v>
       </c>
       <c r="W39" t="n">
-        <v>95.44997870766066</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="X39" t="n">
-        <v>71.34644873097868</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="Y39" t="n">
-        <v>71.34644873097868</v>
+        <v>5.647305907076865</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.908999574153213</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="C40" t="n">
-        <v>1.908999574153213</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="D40" t="n">
-        <v>1.908999574153213</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="E40" t="n">
         <v>1.908999574153213</v>
@@ -7365,19 +7365,19 @@
         <v>5.423933509581786</v>
       </c>
       <c r="U40" t="n">
-        <v>1.908999574153213</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="V40" t="n">
-        <v>1.908999574153213</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="W40" t="n">
-        <v>1.908999574153213</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="X40" t="n">
-        <v>1.908999574153213</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.908999574153213</v>
+        <v>5.423933509581786</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>57.18564442726041</v>
+        <v>71.34644873097868</v>
       </c>
       <c r="C41" t="n">
-        <v>57.18564442726041</v>
+        <v>47.2429187542967</v>
       </c>
       <c r="D41" t="n">
-        <v>57.18564442726041</v>
+        <v>47.2429187542967</v>
       </c>
       <c r="E41" t="n">
-        <v>57.18564442726041</v>
+        <v>47.2429187542967</v>
       </c>
       <c r="F41" t="n">
-        <v>47.88244976582833</v>
+        <v>47.2429187542967</v>
       </c>
       <c r="G41" t="n">
-        <v>23.77891978914635</v>
+        <v>26.0125295508352</v>
       </c>
       <c r="H41" t="n">
-        <v>23.77891978914635</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="I41" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="J41" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="K41" t="n">
         <v>8.629045391172397</v>
@@ -7429,34 +7429,34 @@
         <v>85.02587025944872</v>
       </c>
       <c r="P41" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766066</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766066</v>
       </c>
       <c r="R41" t="n">
-        <v>81.28917440394238</v>
+        <v>95.44997870766066</v>
       </c>
       <c r="S41" t="n">
-        <v>81.28917440394238</v>
+        <v>71.34644873097868</v>
       </c>
       <c r="T41" t="n">
-        <v>81.28917440394238</v>
+        <v>71.34644873097868</v>
       </c>
       <c r="U41" t="n">
-        <v>57.18564442726041</v>
+        <v>71.34644873097868</v>
       </c>
       <c r="V41" t="n">
-        <v>57.18564442726041</v>
+        <v>71.34644873097868</v>
       </c>
       <c r="W41" t="n">
-        <v>57.18564442726041</v>
+        <v>71.34644873097868</v>
       </c>
       <c r="X41" t="n">
-        <v>57.18564442726041</v>
+        <v>71.34644873097868</v>
       </c>
       <c r="Y41" t="n">
-        <v>57.18564442726041</v>
+        <v>71.34644873097868</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766066</v>
       </c>
       <c r="C42" t="n">
-        <v>74.21958950419913</v>
+        <v>95.44997870766066</v>
       </c>
       <c r="D42" t="n">
-        <v>50.11605952751716</v>
+        <v>71.34644873097868</v>
       </c>
       <c r="E42" t="n">
-        <v>50.11605952751716</v>
+        <v>47.2429187542967</v>
       </c>
       <c r="F42" t="n">
-        <v>26.01252955083519</v>
+        <v>23.13938877761471</v>
       </c>
       <c r="G42" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="H42" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="I42" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="J42" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="K42" t="n">
-        <v>2.00873024193131</v>
+        <v>8.346945923252326</v>
       </c>
       <c r="L42" t="n">
-        <v>18.19275653793357</v>
+        <v>24.53097221925459</v>
       </c>
       <c r="M42" t="n">
-        <v>40.22424295215663</v>
+        <v>46.56245863347765</v>
       </c>
       <c r="N42" t="n">
-        <v>63.84811268230263</v>
+        <v>63.84811268230268</v>
       </c>
       <c r="O42" t="n">
-        <v>83.06725959038367</v>
+        <v>83.06725959038373</v>
       </c>
       <c r="P42" t="n">
-        <v>95.35069610950778</v>
+        <v>95.35069610950784</v>
       </c>
       <c r="Q42" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766066</v>
       </c>
       <c r="R42" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766066</v>
       </c>
       <c r="S42" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766066</v>
       </c>
       <c r="T42" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766066</v>
       </c>
       <c r="U42" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766066</v>
       </c>
       <c r="V42" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766066</v>
       </c>
       <c r="W42" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766066</v>
       </c>
       <c r="X42" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766066</v>
       </c>
       <c r="Y42" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766066</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.908999574153212</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="C43" t="n">
-        <v>1.908999574153212</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="D43" t="n">
-        <v>1.908999574153212</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="E43" t="n">
-        <v>1.908999574153212</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="F43" t="n">
-        <v>1.908999574153212</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="G43" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="H43" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="I43" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="J43" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="K43" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="L43" t="n">
-        <v>2.295468180757768</v>
+        <v>2.295468180757769</v>
       </c>
       <c r="M43" t="n">
-        <v>3.232416129329198</v>
+        <v>3.232416129329199</v>
       </c>
       <c r="N43" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="O43" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="P43" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="R43" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="S43" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="T43" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="U43" t="n">
-        <v>1.908999574153212</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="V43" t="n">
-        <v>1.908999574153212</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="W43" t="n">
-        <v>1.908999574153212</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="X43" t="n">
-        <v>1.908999574153212</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.908999574153212</v>
+        <v>5.423933509581786</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>40.2643198916743</v>
+        <v>8.978584473896465</v>
       </c>
       <c r="C44" t="n">
-        <v>12.88841651947392</v>
+        <v>8.978584473896465</v>
       </c>
       <c r="D44" t="n">
-        <v>2.16817154707827</v>
+        <v>8.978584473896465</v>
       </c>
       <c r="E44" t="n">
-        <v>2.16817154707827</v>
+        <v>8.978584473896465</v>
       </c>
       <c r="F44" t="n">
-        <v>2.16817154707827</v>
+        <v>8.978584473896465</v>
       </c>
       <c r="G44" t="n">
-        <v>2.16817154707827</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="H44" t="n">
-        <v>2.16817154707827</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="I44" t="n">
-        <v>2.16817154707827</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="J44" t="n">
-        <v>2.16817154707827</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="K44" t="n">
-        <v>10.41318076204949</v>
+        <v>8.629045391172411</v>
       </c>
       <c r="L44" t="n">
-        <v>26.63838006872331</v>
+        <v>22.96239275619894</v>
       </c>
       <c r="M44" t="n">
-        <v>49.83832414327775</v>
+        <v>44.05728702482669</v>
       </c>
       <c r="N44" t="n">
-        <v>74.16341142931358</v>
+        <v>66.24326259831415</v>
       </c>
       <c r="O44" t="n">
-        <v>94.96592162254093</v>
+        <v>85.02587025944874</v>
       </c>
       <c r="P44" t="n">
-        <v>107.1139701497973</v>
+        <v>95.44997870766063</v>
       </c>
       <c r="Q44" t="n">
-        <v>108.4085773539135</v>
+        <v>95.44997870766063</v>
       </c>
       <c r="R44" t="n">
-        <v>95.01612663607506</v>
+        <v>81.28917440394241</v>
       </c>
       <c r="S44" t="n">
-        <v>95.01612663607506</v>
+        <v>57.18564442726043</v>
       </c>
       <c r="T44" t="n">
-        <v>95.01612663607506</v>
+        <v>33.08211445057844</v>
       </c>
       <c r="U44" t="n">
-        <v>67.64022326387467</v>
+        <v>8.978584473896465</v>
       </c>
       <c r="V44" t="n">
-        <v>67.64022326387467</v>
+        <v>8.978584473896465</v>
       </c>
       <c r="W44" t="n">
-        <v>67.64022326387467</v>
+        <v>8.978584473896465</v>
       </c>
       <c r="X44" t="n">
-        <v>67.64022326387467</v>
+        <v>8.978584473896465</v>
       </c>
       <c r="Y44" t="n">
-        <v>40.2643198916743</v>
+        <v>8.978584473896465</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>96.12791805000239</v>
+        <v>47.24291875429667</v>
       </c>
       <c r="C45" t="n">
-        <v>96.12791805000239</v>
+        <v>47.24291875429667</v>
       </c>
       <c r="D45" t="n">
-        <v>68.75201467780201</v>
+        <v>47.24291875429667</v>
       </c>
       <c r="E45" t="n">
-        <v>68.75201467780201</v>
+        <v>47.24291875429667</v>
       </c>
       <c r="F45" t="n">
-        <v>41.37611130560163</v>
+        <v>23.13938877761469</v>
       </c>
       <c r="G45" t="n">
-        <v>14.00020793340126</v>
+        <v>23.13938877761469</v>
       </c>
       <c r="H45" t="n">
-        <v>5.288159436590885</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="I45" t="n">
-        <v>5.288159436590885</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="J45" t="n">
-        <v>2.16817154707827</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="K45" t="n">
-        <v>9.641892186667892</v>
+        <v>8.346945923252326</v>
       </c>
       <c r="L45" t="n">
-        <v>27.21864483872123</v>
+        <v>24.53097221925459</v>
       </c>
       <c r="M45" t="n">
-        <v>50.87537721979754</v>
+        <v>46.56245863347765</v>
       </c>
       <c r="N45" t="n">
-        <v>77.49963771300574</v>
+        <v>63.84811268230266</v>
       </c>
       <c r="O45" t="n">
-        <v>98.24491787301493</v>
+        <v>83.0672595903837</v>
       </c>
       <c r="P45" t="n">
-        <v>108.4085773539135</v>
+        <v>95.35069610950781</v>
       </c>
       <c r="Q45" t="n">
-        <v>108.4085773539135</v>
+        <v>95.44997870766063</v>
       </c>
       <c r="R45" t="n">
-        <v>96.12791805000239</v>
+        <v>95.44997870766063</v>
       </c>
       <c r="S45" t="n">
-        <v>96.12791805000239</v>
+        <v>71.34644873097865</v>
       </c>
       <c r="T45" t="n">
-        <v>96.12791805000239</v>
+        <v>71.34644873097865</v>
       </c>
       <c r="U45" t="n">
-        <v>96.12791805000239</v>
+        <v>71.34644873097865</v>
       </c>
       <c r="V45" t="n">
-        <v>96.12791805000239</v>
+        <v>47.24291875429667</v>
       </c>
       <c r="W45" t="n">
-        <v>96.12791805000239</v>
+        <v>47.24291875429667</v>
       </c>
       <c r="X45" t="n">
-        <v>96.12791805000239</v>
+        <v>47.24291875429667</v>
       </c>
       <c r="Y45" t="n">
-        <v>96.12791805000239</v>
+        <v>47.24291875429667</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8.148473330556477</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="C46" t="n">
-        <v>8.148473330556477</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="D46" t="n">
-        <v>8.148473330556477</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="E46" t="n">
-        <v>8.148473330556477</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="F46" t="n">
-        <v>8.148473330556477</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="G46" t="n">
-        <v>2.16817154707827</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="H46" t="n">
-        <v>2.16817154707827</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="I46" t="n">
-        <v>2.16817154707827</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="J46" t="n">
-        <v>2.16817154707827</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="K46" t="n">
-        <v>2.16817154707827</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="L46" t="n">
-        <v>3.354136996574035</v>
+        <v>2.295468180757768</v>
       </c>
       <c r="M46" t="n">
-        <v>5.134042268245204</v>
+        <v>3.232416129329198</v>
       </c>
       <c r="N46" t="n">
-        <v>8.148473330556477</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="O46" t="n">
-        <v>8.148473330556477</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="P46" t="n">
-        <v>8.148473330556477</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.148473330556477</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="R46" t="n">
-        <v>8.148473330556477</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="S46" t="n">
-        <v>8.148473330556477</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="T46" t="n">
-        <v>8.148473330556477</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="U46" t="n">
-        <v>8.148473330556477</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="V46" t="n">
-        <v>8.148473330556477</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="W46" t="n">
-        <v>8.148473330556477</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="X46" t="n">
-        <v>8.148473330556477</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.148473330556477</v>
+        <v>5.423933509581786</v>
       </c>
     </row>
   </sheetData>
@@ -22561,49 +22561,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.0867433522511</v>
+        <v>400.0825884389156</v>
       </c>
       <c r="H2" t="n">
-        <v>292.750006414009</v>
+        <v>292.7074549078116</v>
       </c>
       <c r="I2" t="n">
-        <v>26.49318908467228</v>
+        <v>26.33300678830426</v>
       </c>
       <c r="J2" t="n">
-        <v>11.687419793854</v>
+        <v>11.33477671814256</v>
       </c>
       <c r="K2" t="n">
-        <v>9.188120483615116</v>
+        <v>8.659599926410685</v>
       </c>
       <c r="L2" t="n">
-        <v>5.341568553442613</v>
+        <v>4.685892067245952</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7452579786414901</v>
+        <v>0.01569155241409703</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.188868639101635</v>
+        <v>1.488812484839848</v>
       </c>
       <c r="P2" t="n">
-        <v>7.531191812490523</v>
+        <v>6.933710081199632</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.562754156455</v>
+        <v>13.11407025899278</v>
       </c>
       <c r="R2" t="n">
-        <v>21.90854914031357</v>
+        <v>21.64755306550058</v>
       </c>
       <c r="S2" t="n">
-        <v>98.56266449137924</v>
+        <v>98.46798440374585</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8017310251259</v>
+        <v>217.7835428919996</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7546460348163</v>
+        <v>255.7543136417494</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -22640,19 +22640,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>93.00144749716304</v>
+        <v>92.99922442254206</v>
       </c>
       <c r="H3" t="n">
-        <v>51.76270940428461</v>
+        <v>51.74123918360299</v>
       </c>
       <c r="I3" t="n">
-        <v>12.32359484578712</v>
+        <v>12.24705477659964</v>
       </c>
       <c r="J3" t="n">
-        <v>10.04973517299579</v>
+        <v>9.839703372948977</v>
       </c>
       <c r="K3" t="n">
-        <v>4.348154656593753</v>
+        <v>3.989176856940833</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22667,22 +22667,22 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.424509749335602</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.477581017613943</v>
+        <v>8.19380749231045</v>
       </c>
       <c r="R3" t="n">
-        <v>16.73234637554063</v>
+        <v>16.59432074249376</v>
       </c>
       <c r="S3" t="n">
-        <v>78.43461850393234</v>
+        <v>78.39332586788025</v>
       </c>
       <c r="T3" t="n">
-        <v>140.0105580319263</v>
+        <v>140.0015974811513</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9131597401249</v>
+        <v>182.9130134852156</v>
       </c>
       <c r="V3" t="n">
         <v>202.9234074721264</v>
@@ -22719,49 +22719,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5006819057487</v>
+        <v>164.4988181546643</v>
       </c>
       <c r="H4" t="n">
-        <v>141.5250666733238</v>
+        <v>141.5084962318651</v>
       </c>
       <c r="I4" t="n">
-        <v>95.95252362624773</v>
+        <v>95.89647554818475</v>
       </c>
       <c r="J4" t="n">
-        <v>14.01088610452265</v>
+        <v>13.87911890286131</v>
       </c>
       <c r="K4" t="n">
-        <v>10.07631485409216</v>
+        <v>9.859780864477683</v>
       </c>
       <c r="L4" t="n">
-        <v>7.985433933586291</v>
+        <v>7.708344976923126</v>
       </c>
       <c r="M4" t="n">
-        <v>7.884701260890999</v>
+        <v>7.592549806828204</v>
       </c>
       <c r="N4" t="n">
-        <v>6.40747527422576</v>
+        <v>6.12227052874997</v>
       </c>
       <c r="O4" t="n">
-        <v>9.252559636191176</v>
+        <v>8.989126892018565</v>
       </c>
       <c r="P4" t="n">
-        <v>11.04602209616816</v>
+        <v>10.82060987411565</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.77194961588923</v>
+        <v>16.61588587736505</v>
       </c>
       <c r="R4" t="n">
-        <v>42.35432047744712</v>
+        <v>42.27051945141948</v>
       </c>
       <c r="S4" t="n">
-        <v>166.8004460662635</v>
+        <v>166.7679659678213</v>
       </c>
       <c r="T4" t="n">
-        <v>240.5055224018871</v>
+        <v>240.4975591017995</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3774921181736</v>
+        <v>277.3773904590235</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -23260,28 +23260,28 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>407.5736684273537</v>
       </c>
       <c r="D11" t="n">
-        <v>404.0016403473705</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>406.6591161941419</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>407.6098058007445</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>399.9967427842381</v>
+        <v>384.938688524759</v>
       </c>
       <c r="H11" t="n">
         <v>291.8282880968454</v>
       </c>
       <c r="I11" t="n">
-        <v>23.02344218634935</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J11" t="n">
-        <v>4.048734084456797</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.84370531743626</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R11" t="n">
-        <v>16.25505095986411</v>
+        <v>1.196996700384997</v>
       </c>
       <c r="S11" t="n">
-        <v>81.45372228830281</v>
+        <v>96.51177654778198</v>
       </c>
       <c r="T11" t="n">
         <v>217.4077535386488</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>388.0207631529094</v>
       </c>
     </row>
     <row r="12">
@@ -23348,10 +23348,10 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F12" t="n">
-        <v>92.70937201392488</v>
+        <v>77.65131775444576</v>
       </c>
       <c r="G12" t="n">
-        <v>92.95329294796625</v>
+        <v>77.89523868848713</v>
       </c>
       <c r="H12" t="n">
         <v>51.29763783704193</v>
@@ -23360,7 +23360,7 @@
         <v>10.66564216510812</v>
       </c>
       <c r="J12" t="n">
-        <v>5.500186294714744</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,22 +23381,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.330695053476177</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>13.7425402420767</v>
       </c>
       <c r="S12" t="n">
-        <v>62.48211461353912</v>
+        <v>77.54016887301827</v>
       </c>
       <c r="T12" t="n">
-        <v>124.758407146518</v>
+        <v>126.5533272142479</v>
       </c>
       <c r="U12" t="n">
-        <v>168.331343468526</v>
+        <v>182.9099916776777</v>
       </c>
       <c r="V12" t="n">
-        <v>202.9234074721264</v>
+        <v>187.8653532126473</v>
       </c>
       <c r="W12" t="n">
         <v>194.556163395115</v>
@@ -23436,28 +23436,28 @@
         <v>141.1661303916059</v>
       </c>
       <c r="I13" t="n">
-        <v>94.73845284923043</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J13" t="n">
         <v>11.15664534489041</v>
       </c>
       <c r="K13" t="n">
-        <v>5.385920497900834</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L13" t="n">
-        <v>1.983344003918603</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M13" t="n">
-        <v>1.556338985162739</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2295873088291422</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O13" t="n">
-        <v>3.546280180004722</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P13" t="n">
-        <v>6.163314231162722</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q13" t="n">
         <v>13.39141578060923</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>402.3867464568655</v>
       </c>
       <c r="C14" t="n">
-        <v>413.2122938125199</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>404.0016403473705</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>406.6591161941419</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>405.8148857330146</v>
       </c>
       <c r="G14" t="n">
         <v>399.9967427842381</v>
@@ -23515,10 +23515,10 @@
         <v>291.8282880968454</v>
       </c>
       <c r="I14" t="n">
-        <v>23.02344218634935</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J14" t="n">
-        <v>4.048734084456797</v>
+        <v>4.048734084456811</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,25 +23539,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R14" t="n">
-        <v>16.25505095986411</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S14" t="n">
-        <v>96.51177654778196</v>
+        <v>96.51177654778198</v>
       </c>
       <c r="T14" t="n">
-        <v>202.3496992791696</v>
+        <v>217.4077535386488</v>
       </c>
       <c r="U14" t="n">
-        <v>240.689391729896</v>
+        <v>255.7474459893752</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>377.3693819431774</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23576,28 +23576,28 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C15" t="n">
-        <v>107.2523825332333</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D15" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E15" t="n">
-        <v>103.6549143897921</v>
+        <v>90.39178019804294</v>
       </c>
       <c r="F15" t="n">
-        <v>77.65131775444573</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>77.8952386884871</v>
+        <v>92.95329294796625</v>
       </c>
       <c r="H15" t="n">
         <v>51.29763783704193</v>
       </c>
       <c r="I15" t="n">
-        <v>10.66564216510812</v>
+        <v>10.66564216510813</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>5.500186294714753</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.330695053476177</v>
+        <v>2.330695053476191</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>13.74254024207671</v>
       </c>
       <c r="S15" t="n">
-        <v>77.54016887301826</v>
+        <v>77.54016887301827</v>
       </c>
       <c r="T15" t="n">
-        <v>139.8164614059971</v>
+        <v>124.758407146518</v>
       </c>
       <c r="U15" t="n">
-        <v>182.9099916776777</v>
+        <v>167.8519374181986</v>
       </c>
       <c r="V15" t="n">
         <v>202.9234074721264</v>
@@ -23642,7 +23642,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y15" t="n">
-        <v>138.2959597602405</v>
+        <v>123.2379055007614</v>
       </c>
     </row>
     <row r="16">
@@ -23673,31 +23673,31 @@
         <v>141.1661303916059</v>
       </c>
       <c r="I16" t="n">
-        <v>94.73845284923043</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J16" t="n">
         <v>11.15664534489041</v>
       </c>
       <c r="K16" t="n">
-        <v>5.385920497900834</v>
+        <v>5.385920497900843</v>
       </c>
       <c r="L16" t="n">
-        <v>1.983344003918603</v>
+        <v>1.983344003918614</v>
       </c>
       <c r="M16" t="n">
-        <v>1.556338985162739</v>
+        <v>1.556338985162753</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2295873088291422</v>
+        <v>0.2295873088291565</v>
       </c>
       <c r="O16" t="n">
-        <v>3.546280180004722</v>
+        <v>3.546280180004736</v>
       </c>
       <c r="P16" t="n">
-        <v>6.163314231162722</v>
+        <v>6.16331423116273</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.39141578060923</v>
+        <v>13.39141578060924</v>
       </c>
       <c r="R16" t="n">
         <v>40.53908648012926</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>394.9425254742885</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>399.1220097277885</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23779,28 +23779,28 @@
         <v>0.1585647136001427</v>
       </c>
       <c r="R17" t="n">
-        <v>14.11143217127993</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>95.73414793822852</v>
+        <v>72.22443497918414</v>
       </c>
       <c r="T17" t="n">
         <v>217.2583703575925</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7447159712177</v>
+        <v>232.2350030121733</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>330.4048077659687</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>385.8315131996102</v>
       </c>
       <c r="X17" t="n">
-        <v>384.0930858848859</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>377.7741843856142</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23816,7 +23816,7 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D18" t="n">
-        <v>102.8015588998678</v>
+        <v>79.29184594082344</v>
       </c>
       <c r="E18" t="n">
         <v>103.6549143897921</v>
@@ -23825,16 +23825,16 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>92.93503434185737</v>
+        <v>72.22767916753109</v>
       </c>
       <c r="H18" t="n">
-        <v>27.61158518215661</v>
+        <v>51.12129814120099</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.03700156004394</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3.775148425455178</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>12.60890503121191</v>
       </c>
       <c r="S18" t="n">
-        <v>53.69131031366219</v>
+        <v>77.20102327270656</v>
       </c>
       <c r="T18" t="n">
-        <v>121.9468532936618</v>
+        <v>116.233153451277</v>
       </c>
       <c r="U18" t="n">
-        <v>182.9087904535916</v>
+        <v>159.3990774945472</v>
       </c>
       <c r="V18" t="n">
         <v>202.9234074721264</v>
@@ -23904,7 +23904,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.4450033473029</v>
+        <v>161.261170319107</v>
       </c>
       <c r="H19" t="n">
         <v>141.0300336718695</v>
@@ -23955,7 +23955,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>236.954424560457</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -23977,13 +23977,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>398.2074574945766</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>397.3632270334493</v>
       </c>
       <c r="G20" t="n">
-        <v>399.9626175572692</v>
+        <v>376.4529045982248</v>
       </c>
       <c r="H20" t="n">
         <v>291.4788031161503</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>14.11143217127993</v>
       </c>
       <c r="S20" t="n">
         <v>95.73414793822852</v>
       </c>
       <c r="T20" t="n">
-        <v>210.8210120681462</v>
+        <v>217.2583703575925</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7447159712177</v>
+        <v>235.1959255104915</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>368.9177232436122</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>384.0930858848859</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>377.7741843856142</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>116.9673857115797</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C21" t="n">
-        <v>92.82113148862588</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D21" t="n">
         <v>102.8015588998678</v>
@@ -24059,19 +24059,19 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F21" t="n">
-        <v>92.70937201392488</v>
+        <v>88.38607029626567</v>
       </c>
       <c r="G21" t="n">
-        <v>92.93503434185737</v>
+        <v>69.425321382813</v>
       </c>
       <c r="H21" t="n">
         <v>51.12129814120099</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.03700156004394</v>
       </c>
       <c r="J21" t="n">
-        <v>3.775148425455178</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>12.60890503121191</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>77.20102327270656</v>
+        <v>53.69131031366219</v>
       </c>
       <c r="T21" t="n">
         <v>139.7428664103214</v>
@@ -24107,16 +24107,16 @@
         <v>182.9087904535916</v>
       </c>
       <c r="V21" t="n">
-        <v>202.9234074721264</v>
+        <v>179.413694513082</v>
       </c>
       <c r="W21" t="n">
-        <v>171.0464504360706</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X21" t="n">
         <v>161.8425727710037</v>
       </c>
       <c r="Y21" t="n">
-        <v>114.7862468011961</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="22">
@@ -24183,13 +24183,13 @@
         <v>240.2676231067096</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3744551058947</v>
+        <v>274.1906220776988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>268.9200467610162</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -24217,10 +24217,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>397.0104453155786</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>399.961149212524</v>
+        <v>376.0986545356089</v>
       </c>
       <c r="H23" t="n">
         <v>267.6012707536137</v>
@@ -24229,7 +24229,7 @@
         <v>21.6512210128432</v>
       </c>
       <c r="J23" t="n">
-        <v>1.027774177190924</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>14.01919626068103</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>71.83819335543274</v>
+        <v>95.70068803234791</v>
       </c>
       <c r="T23" t="n">
         <v>217.2519426784705</v>
@@ -24265,13 +24265,13 @@
         <v>255.7445985036381</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>347.9434058514581</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>386.5847135325033</v>
+        <v>383.740304167015</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24290,7 +24290,7 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D24" t="n">
-        <v>78.93906422295264</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E24" t="n">
         <v>103.6549143897921</v>
@@ -24299,7 +24299,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>75.61708666632471</v>
+        <v>92.93424870815717</v>
       </c>
       <c r="H24" t="n">
         <v>51.11371057362263</v>
@@ -24308,7 +24308,7 @@
         <v>10.00995232957613</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>3.700923269594412</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>77.18643047130132</v>
       </c>
       <c r="T24" t="n">
-        <v>139.7396997551877</v>
+        <v>118.7216144437608</v>
       </c>
       <c r="U24" t="n">
         <v>182.908738767164</v>
@@ -24350,10 +24350,10 @@
         <v>194.556163395115</v>
       </c>
       <c r="X24" t="n">
-        <v>137.9800780940886</v>
+        <v>137.9800780940885</v>
       </c>
       <c r="Y24" t="n">
-        <v>138.2959597602405</v>
+        <v>114.4334650833253</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>184.7845244288707</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -24423,7 +24423,7 @@
         <v>277.3744191795909</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>275.4145681219771</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>391.7873859716996</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -24463,10 +24463,10 @@
         <v>291.4637654305288</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>21.6512210128432</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.027774177190924</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>14.01919626068103</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>95.70068803234791</v>
+        <v>71.83819335543274</v>
       </c>
       <c r="T26" t="n">
         <v>217.2519426784705</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7445985036381</v>
+        <v>231.8821038267229</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>330.0520260480978</v>
       </c>
       <c r="W26" t="n">
-        <v>368.5649415257414</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>385.4012140456223</v>
+        <v>400.6039097931844</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24524,7 +24524,7 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C27" t="n">
-        <v>107.8728859628053</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D27" t="n">
         <v>102.8015588998678</v>
@@ -24539,7 +24539,7 @@
         <v>92.93424870815717</v>
       </c>
       <c r="H27" t="n">
-        <v>51.11371057362263</v>
+        <v>27.25121589670745</v>
       </c>
       <c r="I27" t="n">
         <v>10.00995232957613</v>
@@ -24569,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>12.56012682656194</v>
       </c>
       <c r="S27" t="n">
-        <v>53.32393579438615</v>
+        <v>53.32393579438614</v>
       </c>
       <c r="T27" t="n">
-        <v>139.7396997551877</v>
+        <v>115.8772050782725</v>
       </c>
       <c r="U27" t="n">
-        <v>182.908738767164</v>
+        <v>161.8906534557371</v>
       </c>
       <c r="V27" t="n">
-        <v>179.0609127952112</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W27" t="n">
         <v>194.556163395115</v>
@@ -24590,7 +24590,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y27" t="n">
-        <v>114.4334650833253</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="28">
@@ -24603,7 +24603,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>166.7730528937988</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24654,7 +24654,7 @@
         <v>165.8186421891014</v>
       </c>
       <c r="T28" t="n">
-        <v>240.2648088795781</v>
+        <v>236.7850242835038</v>
       </c>
       <c r="U28" t="n">
         <v>277.3744191795909</v>
@@ -24682,28 +24682,28 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>398.7692280099177</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>397.8546757767058</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>378.9430639010972</v>
+        <v>399.961149212524</v>
       </c>
       <c r="H29" t="n">
         <v>291.4637654305288</v>
       </c>
       <c r="I29" t="n">
-        <v>21.6512210128432</v>
+        <v>21.65122101284321</v>
       </c>
       <c r="J29" t="n">
-        <v>1.027774177190924</v>
+        <v>1.027774177190928</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>14.01919626068103</v>
       </c>
       <c r="S29" t="n">
-        <v>71.83819335543275</v>
+        <v>71.83819335543274</v>
       </c>
       <c r="T29" t="n">
-        <v>217.2519426784705</v>
+        <v>193.3894480015553</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7445985036381</v>
+        <v>231.8821038267229</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>332.8964354135861</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>127.6377393258621</v>
+        <v>119.1797808409971</v>
       </c>
       <c r="C30" t="n">
-        <v>116.3308444476703</v>
+        <v>92.46834977075508</v>
       </c>
       <c r="D30" t="n">
-        <v>81.78347358844096</v>
+        <v>78.93906422295262</v>
       </c>
       <c r="E30" t="n">
-        <v>103.6549143897921</v>
+        <v>79.79241971287695</v>
       </c>
       <c r="F30" t="n">
         <v>92.70937201392488</v>
@@ -24782,7 +24782,7 @@
         <v>10.00995232957613</v>
       </c>
       <c r="J30" t="n">
-        <v>3.700923269594412</v>
+        <v>3.700923269594416</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>12.56012682656194</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>77.18643047130132</v>
@@ -24821,13 +24821,13 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W30" t="n">
-        <v>170.6936687181998</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X30" t="n">
-        <v>137.9800780940886</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y30" t="n">
-        <v>114.4334650833254</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="31">
@@ -24864,7 +24864,7 @@
         <v>10.02784554495552</v>
       </c>
       <c r="K31" t="n">
-        <v>3.530955673011039</v>
+        <v>3.530955673011043</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24876,16 +24876,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.289551455639582</v>
+        <v>1.289551455639586</v>
       </c>
       <c r="P31" t="n">
-        <v>4.232292945534098</v>
+        <v>4.232292945534102</v>
       </c>
       <c r="Q31" t="n">
         <v>12.05447673506464</v>
       </c>
       <c r="R31" t="n">
-        <v>39.82119477246846</v>
+        <v>39.82119477246847</v>
       </c>
       <c r="S31" t="n">
         <v>165.8186421891014</v>
@@ -24894,10 +24894,10 @@
         <v>240.2648088795781</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3744191795909</v>
+        <v>273.8946345835166</v>
       </c>
       <c r="V31" t="n">
-        <v>275.4145681219771</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -24919,16 +24919,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>398.7692280099177</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>397.8546757767058</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>400.8826288582578</v>
       </c>
       <c r="G32" t="n">
         <v>399.961149212524</v>
@@ -24940,7 +24940,7 @@
         <v>21.65122101284321</v>
       </c>
       <c r="J32" t="n">
-        <v>1.027774177190928</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>14.01919626068103</v>
       </c>
       <c r="S32" t="n">
-        <v>88.70179898160208</v>
+        <v>71.83819335543275</v>
       </c>
       <c r="T32" t="n">
         <v>217.2519426784705</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7445985036381</v>
+        <v>231.8821038267229</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>368.5649415257414</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>377.4214026677434</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C33" t="n">
-        <v>92.4683497707551</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D33" t="n">
         <v>102.8015588998678</v>
@@ -25013,10 +25013,10 @@
         <v>69.07175403124201</v>
       </c>
       <c r="H33" t="n">
-        <v>51.11371057362263</v>
+        <v>27.25121589670747</v>
       </c>
       <c r="I33" t="n">
-        <v>1.551993844711214</v>
+        <v>10.00995232957613</v>
       </c>
       <c r="J33" t="n">
         <v>3.700923269594416</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>12.56012682656194</v>
       </c>
       <c r="S33" t="n">
-        <v>53.32393579438617</v>
+        <v>56.16834515987445</v>
       </c>
       <c r="T33" t="n">
         <v>139.7396997551877</v>
@@ -25055,7 +25055,7 @@
         <v>182.908738767164</v>
       </c>
       <c r="V33" t="n">
-        <v>202.9234074721264</v>
+        <v>179.0609127952112</v>
       </c>
       <c r="W33" t="n">
         <v>194.556163395115</v>
@@ -25077,7 +25077,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>166.7730528937988</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25086,7 +25086,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>166.6633718871109</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.4443446983998</v>
@@ -25156,10 +25156,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>398.7692280099177</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>395.1971999299345</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -25171,13 +25171,13 @@
         <v>399.961149212524</v>
       </c>
       <c r="H35" t="n">
-        <v>291.4637654305288</v>
+        <v>285.492650556974</v>
       </c>
       <c r="I35" t="n">
         <v>21.65122101284321</v>
       </c>
       <c r="J35" t="n">
-        <v>1.027774177190928</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>14.01919626068103</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>95.70068803234791</v>
+        <v>71.83819335543274</v>
       </c>
       <c r="T35" t="n">
-        <v>193.3894480015553</v>
+        <v>217.2519426784705</v>
       </c>
       <c r="U35" t="n">
-        <v>231.8821038267229</v>
+        <v>255.7445985036381</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>368.5649415257414</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>386.5847135325034</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25241,7 +25241,7 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E36" t="n">
-        <v>103.6549143897921</v>
+        <v>79.79241971287698</v>
       </c>
       <c r="F36" t="n">
         <v>92.70937201392488</v>
@@ -25250,7 +25250,7 @@
         <v>92.93424870815717</v>
       </c>
       <c r="H36" t="n">
-        <v>51.11371057362263</v>
+        <v>30.09562526219575</v>
       </c>
       <c r="I36" t="n">
         <v>10.00995232957613</v>
@@ -25283,22 +25283,22 @@
         <v>12.56012682656194</v>
       </c>
       <c r="S36" t="n">
-        <v>77.18643047130132</v>
+        <v>53.32393579438615</v>
       </c>
       <c r="T36" t="n">
-        <v>139.7396997551877</v>
+        <v>115.8772050782725</v>
       </c>
       <c r="U36" t="n">
-        <v>159.0462440902488</v>
+        <v>182.908738767164</v>
       </c>
       <c r="V36" t="n">
-        <v>179.0609127952113</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W36" t="n">
-        <v>170.6936687181998</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X36" t="n">
-        <v>140.8244874595769</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y36" t="n">
         <v>138.2959597602405</v>
@@ -25365,7 +25365,7 @@
         <v>165.8186421891014</v>
       </c>
       <c r="T37" t="n">
-        <v>240.2648088795781</v>
+        <v>236.7850242835038</v>
       </c>
       <c r="U37" t="n">
         <v>277.3744191795909</v>
@@ -25377,7 +25377,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>236.6584729925786</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -25405,7 +25405,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>376.0986545356089</v>
+        <v>399.961149212524</v>
       </c>
       <c r="H38" t="n">
         <v>291.4637654305288</v>
@@ -25414,7 +25414,7 @@
         <v>21.65122101284321</v>
       </c>
       <c r="J38" t="n">
-        <v>1.027774177190928</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25447,16 +25447,16 @@
         <v>217.2519426784705</v>
       </c>
       <c r="U38" t="n">
-        <v>231.8821038267229</v>
+        <v>255.7445985036381</v>
       </c>
       <c r="V38" t="n">
-        <v>346.9156316742672</v>
+        <v>330.0520260480978</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>368.5649415257414</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>401.6316839703753</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25475,16 +25475,16 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D39" t="n">
-        <v>78.93906422295265</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E39" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F39" t="n">
-        <v>71.69128670249799</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>69.07175403124201</v>
+        <v>92.93424870815717</v>
       </c>
       <c r="H39" t="n">
         <v>51.11371057362263</v>
@@ -25493,7 +25493,7 @@
         <v>10.00995232957613</v>
       </c>
       <c r="J39" t="n">
-        <v>3.700923269594416</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,22 +25520,22 @@
         <v>12.56012682656194</v>
       </c>
       <c r="S39" t="n">
-        <v>77.18643047130132</v>
+        <v>53.32393579438616</v>
       </c>
       <c r="T39" t="n">
-        <v>139.7396997551877</v>
+        <v>115.8772050782725</v>
       </c>
       <c r="U39" t="n">
-        <v>182.908738767164</v>
+        <v>159.0462440902488</v>
       </c>
       <c r="V39" t="n">
         <v>202.9234074721264</v>
       </c>
       <c r="W39" t="n">
-        <v>194.556163395115</v>
+        <v>177.2390013532825</v>
       </c>
       <c r="X39" t="n">
-        <v>137.9800780940886</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y39" t="n">
         <v>138.2959597602405</v>
@@ -25557,7 +25557,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>161.0663391926007</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -25605,7 +25605,7 @@
         <v>240.2648088795781</v>
       </c>
       <c r="U40" t="n">
-        <v>273.8946345835166</v>
+        <v>277.3744191795909</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -25630,7 +25630,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>398.7692280099177</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25639,16 +25639,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>411.662777277676</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>376.0986545356089</v>
+        <v>378.9430639010972</v>
       </c>
       <c r="H41" t="n">
-        <v>291.4637654305288</v>
+        <v>267.6012707536137</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>21.65122101284321</v>
       </c>
       <c r="J41" t="n">
         <v>1.027774177190928</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>14.01919626068103</v>
       </c>
       <c r="S41" t="n">
-        <v>95.70068803234791</v>
+        <v>71.83819335543275</v>
       </c>
       <c r="T41" t="n">
         <v>217.2519426784705</v>
       </c>
       <c r="U41" t="n">
-        <v>231.8821038267229</v>
+        <v>255.7445985036381</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25709,19 +25709,19 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C42" t="n">
-        <v>95.3127591362434</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D42" t="n">
-        <v>78.93906422295267</v>
+        <v>78.93906422295265</v>
       </c>
       <c r="E42" t="n">
-        <v>103.6549143897921</v>
+        <v>79.79241971287698</v>
       </c>
       <c r="F42" t="n">
-        <v>68.84687733700973</v>
+        <v>68.84687733700972</v>
       </c>
       <c r="G42" t="n">
-        <v>69.07175403124202</v>
+        <v>71.9161633967303</v>
       </c>
       <c r="H42" t="n">
         <v>51.11371057362263</v>
@@ -25800,7 +25800,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.4443446983998</v>
+        <v>160.9645601023255</v>
       </c>
       <c r="H43" t="n">
         <v>141.0241776843491</v>
@@ -25842,7 +25842,7 @@
         <v>240.2648088795781</v>
       </c>
       <c r="U43" t="n">
-        <v>273.8946345835166</v>
+        <v>277.3744191795909</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -25867,10 +25867,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>395.5295783483545</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>408.446652084178</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -25879,16 +25879,16 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>399.9490397655255</v>
+        <v>392.9622601617782</v>
       </c>
       <c r="H44" t="n">
-        <v>291.3397495564552</v>
+        <v>291.4637654305288</v>
       </c>
       <c r="I44" t="n">
-        <v>21.18437155743263</v>
+        <v>21.65122101284321</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1.027774177190928</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>95.42474400886907</v>
+        <v>71.83819335543275</v>
       </c>
       <c r="T44" t="n">
-        <v>217.1989335742344</v>
+        <v>193.3894480015553</v>
       </c>
       <c r="U44" t="n">
-        <v>228.6414854093998</v>
+        <v>231.8821038267229</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>374.1817530061802</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -25949,25 +25949,25 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D45" t="n">
-        <v>75.69941456138945</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E45" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F45" t="n">
-        <v>65.60722767544651</v>
+        <v>68.84687733700972</v>
       </c>
       <c r="G45" t="n">
-        <v>65.82562524433426</v>
+        <v>92.93424870815717</v>
       </c>
       <c r="H45" t="n">
-        <v>42.42620785121599</v>
+        <v>30.09562526219577</v>
       </c>
       <c r="I45" t="n">
-        <v>9.786877180652272</v>
+        <v>10.00995232957613</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>3.700923269594416</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>12.56012682656194</v>
       </c>
       <c r="S45" t="n">
-        <v>77.06608355974814</v>
+        <v>53.32393579438616</v>
       </c>
       <c r="T45" t="n">
-        <v>139.7135843332946</v>
+        <v>139.7396997551877</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9083125089176</v>
+        <v>182.908738767164</v>
       </c>
       <c r="V45" t="n">
-        <v>202.9234074721264</v>
+        <v>179.0609127952112</v>
       </c>
       <c r="W45" t="n">
         <v>194.556163395115</v>
@@ -26037,19 +26037,19 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>158.5184140517154</v>
+        <v>160.9645601023255</v>
       </c>
       <c r="H46" t="n">
-        <v>140.9758833238215</v>
+        <v>141.0241776843491</v>
       </c>
       <c r="I46" t="n">
-        <v>94.09495867721525</v>
+        <v>94.25831015433721</v>
       </c>
       <c r="J46" t="n">
-        <v>9.643811555361342</v>
+        <v>10.02784554495552</v>
       </c>
       <c r="K46" t="n">
-        <v>2.899869857527751</v>
+        <v>3.530955673011043</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26061,25 +26061,25 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.5217797608716452</v>
+        <v>1.289551455639586</v>
       </c>
       <c r="P46" t="n">
-        <v>3.575331624001258</v>
+        <v>4.232292945534102</v>
       </c>
       <c r="Q46" t="n">
-        <v>11.59963076899135</v>
+        <v>12.05447673506464</v>
       </c>
       <c r="R46" t="n">
-        <v>39.57695764857328</v>
+        <v>39.82119477246847</v>
       </c>
       <c r="S46" t="n">
-        <v>165.7239793167789</v>
+        <v>165.8186421891014</v>
       </c>
       <c r="T46" t="n">
-        <v>240.2415999333123</v>
+        <v>240.2648088795781</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3741228951705</v>
+        <v>277.3744191795909</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>43378.1389179909</v>
+        <v>44051.77908882055</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62260.58998804074</v>
+        <v>62260.58998804072</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70072.05349652506</v>
+        <v>70072.0534965251</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70394.89482847064</v>
+        <v>70394.89482847061</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>70394.89482847064</v>
+        <v>70394.89482847061</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>70394.89482847061</v>
+        <v>70394.89482847063</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>70394.89482847061</v>
+        <v>70394.89482847064</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>70394.89482847061</v>
+        <v>70394.89482847063</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>70394.89482847063</v>
+        <v>70394.89482847061</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>73130.54843813377</v>
+        <v>70394.8948284706</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10844.53472949773</v>
+        <v>11012.94477220514</v>
       </c>
       <c r="C2" t="n">
         <v>11012.94477220514</v>
@@ -26325,37 +26325,37 @@
         <v>15565.14749701018</v>
       </c>
       <c r="F2" t="n">
-        <v>15565.14749701019</v>
+        <v>15565.14749701018</v>
       </c>
       <c r="G2" t="n">
-        <v>17518.01337413127</v>
+        <v>17518.01337413128</v>
       </c>
       <c r="H2" t="n">
-        <v>17518.01337413127</v>
+        <v>17518.01337413128</v>
       </c>
       <c r="I2" t="n">
+        <v>17598.72370711767</v>
+      </c>
+      <c r="J2" t="n">
+        <v>17598.72370711767</v>
+      </c>
+      <c r="K2" t="n">
+        <v>17598.72370711767</v>
+      </c>
+      <c r="L2" t="n">
         <v>17598.72370711766</v>
       </c>
-      <c r="J2" t="n">
-        <v>17598.72370711766</v>
-      </c>
-      <c r="K2" t="n">
-        <v>17598.72370711766</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>17598.72370711767</v>
-      </c>
-      <c r="M2" t="n">
-        <v>17598.72370711765</v>
       </c>
       <c r="N2" t="n">
         <v>17598.72370711767</v>
       </c>
       <c r="O2" t="n">
-        <v>17598.72370711766</v>
+        <v>17598.72370711767</v>
       </c>
       <c r="P2" t="n">
-        <v>18282.63710953344</v>
+        <v>17598.72370711767</v>
       </c>
     </row>
     <row r="3">
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50079.88112084009</v>
+        <v>51075.80858620763</v>
       </c>
       <c r="C3" t="n">
-        <v>941.1387577986354</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>19.03749879809114</v>
       </c>
       <c r="E3" t="n">
-        <v>21634.0979298325</v>
+        <v>21634.09792983247</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8916.288059334149</v>
+        <v>8916.288059334185</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>368.7542080455135</v>
+        <v>368.7542080455125</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2033.900117709069</v>
+        <v>2033.900117709076</v>
       </c>
       <c r="P3" t="n">
-        <v>2770.63357635529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,16 +26426,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>10.9111573773535</v>
+        <v>10.91115737735348</v>
       </c>
       <c r="F4" t="n">
-        <v>10.9111573773535</v>
+        <v>10.91115737735348</v>
       </c>
       <c r="G4" t="n">
         <v>17.15222569169689</v>
       </c>
       <c r="H4" t="n">
-        <v>17.15222569169689</v>
+        <v>17.1522256916969</v>
       </c>
       <c r="I4" t="n">
         <v>17.41872404354272</v>
@@ -26450,16 +26450,16 @@
         <v>17.41872404354271</v>
       </c>
       <c r="M4" t="n">
-        <v>17.41872404354271</v>
+        <v>17.41872404354272</v>
       </c>
       <c r="N4" t="n">
-        <v>17.41872404354271</v>
+        <v>17.41872404354272</v>
       </c>
       <c r="O4" t="n">
         <v>17.41872404354271</v>
       </c>
       <c r="P4" t="n">
-        <v>19.85584356248087</v>
+        <v>17.41872404354271</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34760.56666652932</v>
+        <v>34783.09772281956</v>
       </c>
       <c r="C5" t="n">
         <v>34783.09772281956</v>
@@ -26478,16 +26478,16 @@
         <v>34783.58232194311</v>
       </c>
       <c r="E5" t="n">
-        <v>2536.546945698389</v>
+        <v>2536.546945698387</v>
       </c>
       <c r="F5" t="n">
-        <v>2536.546945698389</v>
+        <v>2536.546945698387</v>
       </c>
       <c r="G5" t="n">
         <v>3235.460369177473</v>
       </c>
       <c r="H5" t="n">
-        <v>3235.460369177473</v>
+        <v>3235.460369177474</v>
       </c>
       <c r="I5" t="n">
         <v>3264.871964090898</v>
@@ -26496,22 +26496,22 @@
         <v>3264.871964090898</v>
       </c>
       <c r="K5" t="n">
-        <v>3264.871964090897</v>
+        <v>3264.871964090898</v>
       </c>
       <c r="L5" t="n">
         <v>3264.871964090897</v>
       </c>
       <c r="M5" t="n">
-        <v>3264.871964090896</v>
+        <v>3264.871964090898</v>
       </c>
       <c r="N5" t="n">
         <v>3264.871964090897</v>
       </c>
       <c r="O5" t="n">
-        <v>3264.871964090896</v>
+        <v>3264.871964090897</v>
       </c>
       <c r="P5" t="n">
-        <v>3527.509167225183</v>
+        <v>3264.871964090897</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-73995.91305787166</v>
+        <v>-76223.40431561993</v>
       </c>
       <c r="C6" t="n">
-        <v>-24711.29170841305</v>
+        <v>-25147.59572941229</v>
       </c>
       <c r="D6" t="n">
-        <v>-23786.18837143478</v>
+        <v>-25163.60624539621</v>
       </c>
       <c r="E6" t="n">
-        <v>-8616.408535898063</v>
+        <v>-9961.335580947298</v>
       </c>
       <c r="F6" t="n">
-        <v>13017.68939393444</v>
+        <v>11672.76234888517</v>
       </c>
       <c r="G6" t="n">
-        <v>5349.112719927953</v>
+        <v>4018.134716858096</v>
       </c>
       <c r="H6" t="n">
-        <v>14265.40077926211</v>
+        <v>12934.42277619228</v>
       </c>
       <c r="I6" t="n">
-        <v>13947.67881093771</v>
+        <v>12617.27731024637</v>
       </c>
       <c r="J6" t="n">
-        <v>14316.43301898322</v>
+        <v>12986.03151829187</v>
       </c>
       <c r="K6" t="n">
-        <v>14316.43301898323</v>
+        <v>12986.03151829187</v>
       </c>
       <c r="L6" t="n">
-        <v>14316.43301898323</v>
+        <v>12986.03151829187</v>
       </c>
       <c r="M6" t="n">
-        <v>10563.90566530398</v>
+        <v>9233.504164612634</v>
       </c>
       <c r="N6" t="n">
-        <v>14316.43301898323</v>
+        <v>12986.03151829188</v>
       </c>
       <c r="O6" t="n">
-        <v>12282.53290127415</v>
+        <v>10952.1314005828</v>
       </c>
       <c r="P6" t="n">
-        <v>11964.63852239049</v>
+        <v>12986.03151829187</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.97094800593192</v>
+        <v>53.00448269814503</v>
       </c>
       <c r="C3" t="n">
         <v>53.00448269814503</v>
@@ -26746,10 +26746,10 @@
         <v>53.02671201573919</v>
       </c>
       <c r="E3" t="n">
-        <v>74.35858929917694</v>
+        <v>74.35858929917691</v>
       </c>
       <c r="F3" t="n">
-        <v>74.35858929917694</v>
+        <v>74.3585892991769</v>
       </c>
       <c r="G3" t="n">
         <v>82.84723950768694</v>
@@ -26764,7 +26764,7 @@
         <v>83.21249026304841</v>
       </c>
       <c r="K3" t="n">
-        <v>83.21249026304841</v>
+        <v>83.21249026304839</v>
       </c>
       <c r="L3" t="n">
         <v>83.21249026304839</v>
@@ -26779,7 +26779,7 @@
         <v>83.21249026304839</v>
       </c>
       <c r="P3" t="n">
-        <v>86.2247152039311</v>
+        <v>83.21249026304839</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="F4" t="n">
-        <v>15.05805425947914</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="G4" t="n">
         <v>23.50971295904437</v>
       </c>
       <c r="H4" t="n">
-        <v>23.50971295904437</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="I4" t="n">
-        <v>23.86249467691517</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="J4" t="n">
         <v>23.86249467691518</v>
       </c>
       <c r="K4" t="n">
-        <v>23.86249467691516</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="L4" t="n">
         <v>23.86249467691516</v>
       </c>
       <c r="M4" t="n">
-        <v>23.86249467691515</v>
+        <v>23.86249467691517</v>
       </c>
       <c r="N4" t="n">
         <v>23.86249467691517</v>
       </c>
       <c r="O4" t="n">
-        <v>23.86249467691515</v>
+        <v>23.86249467691517</v>
       </c>
       <c r="P4" t="n">
-        <v>27.10214433847837</v>
+        <v>23.86249467691516</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.97094800593192</v>
+        <v>53.00448269814503</v>
       </c>
       <c r="C3" t="n">
-        <v>1.033534692213102</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.02222931759416724</v>
       </c>
       <c r="E3" t="n">
-        <v>21.33187728343775</v>
+        <v>21.33187728343772</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.488650208509995</v>
+        <v>8.488650208510037</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.012224940882703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8.451658699565233</v>
+        <v>8.451658699565247</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3527817178707977</v>
+        <v>0.3527817178707942</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,10 +27050,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>8.451658699565218</v>
+        <v>8.451658699565247</v>
       </c>
       <c r="P4" t="n">
-        <v>3.23964966156322</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>8.451658699565233</v>
+        <v>8.451658699565247</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.208928434194701</v>
+        <v>0.2130833475302311</v>
       </c>
       <c r="H2" t="n">
-        <v>2.139688326696483</v>
+        <v>2.18223983289398</v>
       </c>
       <c r="I2" t="n">
-        <v>8.05471345929122</v>
+        <v>8.214895755659242</v>
       </c>
       <c r="J2" t="n">
-        <v>17.73253969173252</v>
+        <v>18.08518276744397</v>
       </c>
       <c r="K2" t="n">
-        <v>26.57648031119422</v>
+        <v>27.10500086839865</v>
       </c>
       <c r="L2" t="n">
-        <v>32.97047387918031</v>
+        <v>33.62615036537697</v>
       </c>
       <c r="M2" t="n">
-        <v>36.68600492079032</v>
+        <v>37.41557134701772</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>35.20209071692246</v>
+        <v>35.90214687118425</v>
       </c>
       <c r="P2" t="n">
-        <v>30.04416999774078</v>
+        <v>30.64165172903167</v>
       </c>
       <c r="Q2" t="n">
-        <v>22.56192044814304</v>
+        <v>23.01060434560526</v>
       </c>
       <c r="R2" t="n">
-        <v>13.1241007544829</v>
+        <v>13.38509682929589</v>
       </c>
       <c r="S2" t="n">
-        <v>4.760956694211755</v>
+        <v>4.855636781845146</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9145842206873043</v>
+        <v>0.9327723538135871</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01671427473557608</v>
+        <v>0.01704666780241848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1117865674089857</v>
+        <v>0.1140096420299723</v>
       </c>
       <c r="H3" t="n">
-        <v>1.079622901028888</v>
+        <v>1.101093121710522</v>
       </c>
       <c r="I3" t="n">
-        <v>3.848791904212884</v>
+        <v>3.925331973400363</v>
       </c>
       <c r="J3" t="n">
-        <v>10.56137916033754</v>
+        <v>10.77141096038436</v>
       </c>
       <c r="K3" t="n">
-        <v>18.05107917673958</v>
+        <v>18.4100569763925</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -31147,22 +31147,22 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.34633145549306</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.26945727136455</v>
+        <v>14.55323079666805</v>
       </c>
       <c r="R3" t="n">
-        <v>6.940573018603515</v>
+        <v>7.078598651650389</v>
       </c>
       <c r="S3" t="n">
-        <v>2.076386460425675</v>
+        <v>2.117679096477774</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4505783133721832</v>
+        <v>0.4595388641471251</v>
       </c>
       <c r="U3" t="n">
-        <v>0.007354379434801691</v>
+        <v>0.00750063434407713</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09371810296151657</v>
+        <v>0.09558185404583527</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8332391336033025</v>
+        <v>0.8498095750620634</v>
       </c>
       <c r="I4" t="n">
-        <v>2.818358950879063</v>
+        <v>2.874407028942029</v>
       </c>
       <c r="J4" t="n">
-        <v>6.625869879379222</v>
+        <v>6.757637081040554</v>
       </c>
       <c r="K4" t="n">
-        <v>10.88833959861983</v>
+        <v>11.10487358823431</v>
       </c>
       <c r="L4" t="n">
-        <v>13.93332596211493</v>
+        <v>14.2104149187781</v>
       </c>
       <c r="M4" t="n">
-        <v>14.69073863059482</v>
+        <v>14.98289008465761</v>
       </c>
       <c r="N4" t="n">
-        <v>14.34142570137463</v>
+        <v>14.62663044685042</v>
       </c>
       <c r="O4" t="n">
-        <v>13.24662786223328</v>
+        <v>13.51006060640589</v>
       </c>
       <c r="P4" t="n">
-        <v>11.33477856181833</v>
+        <v>11.56019078387084</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.847613148895721</v>
+        <v>8.003676887419898</v>
       </c>
       <c r="R4" t="n">
-        <v>4.213906702251462</v>
+        <v>4.297707728279102</v>
       </c>
       <c r="S4" t="n">
-        <v>1.633250939792975</v>
+        <v>1.665731038235147</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4004318944719343</v>
+        <v>0.4083951945594779</v>
       </c>
       <c r="U4" t="n">
-        <v>0.005111896525173638</v>
+        <v>0.005213555675227385</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2989290022077463</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H11" t="n">
-        <v>3.061406643860082</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I11" t="n">
-        <v>11.52446035761415</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J11" t="n">
-        <v>25.37122540112973</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K11" t="n">
-        <v>38.02489006458364</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L11" t="n">
-        <v>47.17323851589896</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M11" t="n">
-        <v>52.48931715891096</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N11" t="n">
-        <v>52.33767709392517</v>
+        <v>52.33767709392515</v>
       </c>
       <c r="O11" t="n">
-        <v>50.36617392073045</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P11" t="n">
-        <v>42.9863641787267</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q11" t="n">
-        <v>32.28096928716178</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R11" t="n">
-        <v>18.77759893493236</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S11" t="n">
-        <v>6.811844637809025</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T11" t="n">
         <v>1.30856170716441</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0239143201766197</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>0.1599411166057768</v>
       </c>
       <c r="H12" t="n">
-        <v>1.544694468271582</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I12" t="n">
-        <v>5.506744584891878</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J12" t="n">
         <v>15.11092803861859</v>
       </c>
       <c r="K12" t="n">
-        <v>25.82698285120564</v>
+        <v>25.82698285120563</v>
       </c>
       <c r="L12" t="n">
-        <v>24.94197228116947</v>
+        <v>34.72756569109202</v>
       </c>
       <c r="M12" t="n">
-        <v>38.15483477180712</v>
+        <v>28.36924136188455</v>
       </c>
       <c r="N12" t="n">
-        <v>36.40108247302081</v>
+        <v>36.40108247302079</v>
       </c>
       <c r="O12" t="n">
-        <v>38.054060318042</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P12" t="n">
-        <v>30.54173831044874</v>
+        <v>30.54173831044873</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.41634323550232</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R12" t="n">
-        <v>9.930379152067445</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S12" t="n">
-        <v>2.970836091339756</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T12" t="n">
-        <v>0.6446749393013546</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01052244188195901</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1340892593919584</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H13" t="n">
         <v>1.192175415321231</v>
       </c>
       <c r="I13" t="n">
-        <v>4.032429727896351</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J13" t="n">
-        <v>9.480110639011459</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K13" t="n">
         <v>15.57873395481116</v>
       </c>
       <c r="L13" t="n">
-        <v>19.93541589178262</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M13" t="n">
-        <v>21.01910090632308</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N13" t="n">
-        <v>20.51931366677125</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O13" t="n">
-        <v>18.95290731841973</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P13" t="n">
         <v>16.21748642682376</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.22814698417572</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R13" t="n">
-        <v>6.029140699569329</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S13" t="n">
-        <v>2.336810093221674</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5729268355838221</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U13" t="n">
-        <v>0.007313959603197739</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2989290022077463</v>
+        <v>0.2989290022077461</v>
       </c>
       <c r="H14" t="n">
-        <v>3.061406643860082</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I14" t="n">
-        <v>11.52446035761415</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J14" t="n">
-        <v>25.37122540112973</v>
+        <v>25.37122540112971</v>
       </c>
       <c r="K14" t="n">
-        <v>38.02489006458364</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L14" t="n">
-        <v>47.17323851589896</v>
+        <v>47.17323851589893</v>
       </c>
       <c r="M14" t="n">
-        <v>52.48931715891096</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N14" t="n">
-        <v>52.33767709392517</v>
+        <v>52.33767709392515</v>
       </c>
       <c r="O14" t="n">
-        <v>50.36617392073045</v>
+        <v>50.36617392073042</v>
       </c>
       <c r="P14" t="n">
-        <v>42.9863641787267</v>
+        <v>42.98636417872668</v>
       </c>
       <c r="Q14" t="n">
-        <v>32.28096928716178</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R14" t="n">
-        <v>18.77759893493236</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S14" t="n">
-        <v>6.811844637809025</v>
+        <v>6.811844637809021</v>
       </c>
       <c r="T14" t="n">
-        <v>1.30856170716441</v>
+        <v>1.308561707164409</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0239143201766197</v>
+        <v>0.02391432017661968</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1599411166057768</v>
+        <v>0.1599411166057767</v>
       </c>
       <c r="H15" t="n">
-        <v>1.544694468271582</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I15" t="n">
-        <v>5.506744584891878</v>
+        <v>5.506744584891875</v>
       </c>
       <c r="J15" t="n">
-        <v>15.11092803861859</v>
+        <v>15.11092803861858</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>25.82698285120562</v>
       </c>
       <c r="L15" t="n">
-        <v>34.72756569109202</v>
+        <v>34.72756569109201</v>
       </c>
       <c r="M15" t="n">
-        <v>38.15483477180712</v>
+        <v>28.36924136188459</v>
       </c>
       <c r="N15" t="n">
-        <v>30.04323808097055</v>
+        <v>36.40108247302079</v>
       </c>
       <c r="O15" t="n">
-        <v>38.054060318042</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P15" t="n">
-        <v>30.54173831044874</v>
+        <v>30.54173831044872</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.41634323550232</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R15" t="n">
-        <v>9.930379152067445</v>
+        <v>9.93037915206744</v>
       </c>
       <c r="S15" t="n">
-        <v>2.970836091339756</v>
+        <v>2.970836091339754</v>
       </c>
       <c r="T15" t="n">
-        <v>0.6446749393013546</v>
+        <v>0.6446749393013542</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01052244188195901</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1340892593919584</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H16" t="n">
-        <v>1.192175415321231</v>
+        <v>1.19217541532123</v>
       </c>
       <c r="I16" t="n">
-        <v>4.032429727896351</v>
+        <v>4.032429727896348</v>
       </c>
       <c r="J16" t="n">
-        <v>9.480110639011459</v>
+        <v>9.480110639011453</v>
       </c>
       <c r="K16" t="n">
-        <v>15.57873395481116</v>
+        <v>15.57873395481115</v>
       </c>
       <c r="L16" t="n">
-        <v>19.93541589178262</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M16" t="n">
-        <v>21.01910090632308</v>
+        <v>21.01910090632306</v>
       </c>
       <c r="N16" t="n">
-        <v>20.51931366677125</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O16" t="n">
-        <v>18.95290731841973</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P16" t="n">
-        <v>16.21748642682376</v>
+        <v>16.21748642682375</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.22814698417572</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R16" t="n">
-        <v>6.029140699569329</v>
+        <v>6.029140699569325</v>
       </c>
       <c r="S16" t="n">
-        <v>2.336810093221674</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5729268355838221</v>
+        <v>0.5729268355838218</v>
       </c>
       <c r="U16" t="n">
-        <v>0.007313959603197739</v>
+        <v>0.007313959603197736</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>0.3330542291766306</v>
       </c>
       <c r="H17" t="n">
-        <v>3.410891624555169</v>
+        <v>3.41089162455517</v>
       </c>
       <c r="I17" t="n">
         <v>12.84007317033207</v>
@@ -32268,7 +32268,7 @@
         <v>1.457944888220701</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02664433833413044</v>
+        <v>0.02664433833413045</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,19 +32314,19 @@
         <v>6.135385189956062</v>
       </c>
       <c r="J18" t="n">
-        <v>16.83596590787815</v>
+        <v>16.83596590787816</v>
       </c>
       <c r="K18" t="n">
         <v>28.77534732975953</v>
       </c>
       <c r="L18" t="n">
-        <v>38.69200558328341</v>
+        <v>38.69200558328342</v>
       </c>
       <c r="M18" t="n">
         <v>45.15174553168937</v>
       </c>
       <c r="N18" t="n">
-        <v>38.34014775380279</v>
+        <v>38.34014775380277</v>
       </c>
       <c r="O18" t="n">
         <v>42.3982471846556</v>
@@ -32426,7 +32426,7 @@
         <v>0.638331189649391</v>
       </c>
       <c r="U19" t="n">
-        <v>0.008148908804034788</v>
+        <v>0.00814890880403479</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32560,10 +32560,10 @@
         <v>38.69200558328342</v>
       </c>
       <c r="M21" t="n">
-        <v>45.15174553168937</v>
+        <v>38.63915211290613</v>
       </c>
       <c r="N21" t="n">
-        <v>38.34014775380277</v>
+        <v>44.85274117258605</v>
       </c>
       <c r="O21" t="n">
         <v>42.3982471846556</v>
@@ -32791,7 +32791,7 @@
         <v>16.91019106373892</v>
       </c>
       <c r="K24" t="n">
-        <v>28.90220994353447</v>
+        <v>22.4999718815941</v>
       </c>
       <c r="L24" t="n">
         <v>38.86258802332276</v>
@@ -32800,16 +32800,16 @@
         <v>45.35080719336138</v>
       </c>
       <c r="N24" t="n">
-        <v>45.20552289045683</v>
+        <v>45.20552289045684</v>
       </c>
       <c r="O24" t="n">
         <v>42.58516942735459</v>
       </c>
       <c r="P24" t="n">
-        <v>27.87640023104681</v>
+        <v>34.17835284030757</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>22.84732374165812</v>
       </c>
       <c r="R24" t="n">
         <v>11.11279256758221</v>
@@ -33028,7 +33028,7 @@
         <v>16.91019106373892</v>
       </c>
       <c r="K27" t="n">
-        <v>22.4999718815941</v>
+        <v>22.49997188159413</v>
       </c>
       <c r="L27" t="n">
         <v>38.86258802332276</v>
@@ -33037,7 +33037,7 @@
         <v>45.35080719336138</v>
       </c>
       <c r="N27" t="n">
-        <v>45.20552289045684</v>
+        <v>45.20552289045685</v>
       </c>
       <c r="O27" t="n">
         <v>42.58516942735459</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3345225739218024</v>
+        <v>0.3345225739218023</v>
       </c>
       <c r="H29" t="n">
         <v>3.425929310176659</v>
@@ -33189,19 +33189,19 @@
         <v>42.5525258625055</v>
       </c>
       <c r="L29" t="n">
-        <v>52.79017108416488</v>
+        <v>52.79017108416487</v>
       </c>
       <c r="M29" t="n">
-        <v>58.73923690814673</v>
+        <v>58.73923690814672</v>
       </c>
       <c r="N29" t="n">
         <v>59.68969917130205</v>
       </c>
       <c r="O29" t="n">
-        <v>56.36329032686713</v>
+        <v>56.36329032686712</v>
       </c>
       <c r="P29" t="n">
-        <v>48.10476428317262</v>
+        <v>48.10476428317261</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459806</v>
@@ -33210,13 +33210,13 @@
         <v>21.01345363411544</v>
       </c>
       <c r="S29" t="n">
-        <v>7.622933153243079</v>
+        <v>7.622933153243078</v>
       </c>
       <c r="T29" t="n">
-        <v>1.464372567342691</v>
+        <v>1.46437256734269</v>
       </c>
       <c r="U29" t="n">
-        <v>0.02676180591374419</v>
+        <v>0.02676180591374418</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1789853564148589</v>
+        <v>0.1789853564148588</v>
       </c>
       <c r="H30" t="n">
         <v>1.728621731690874</v>
       </c>
       <c r="I30" t="n">
-        <v>6.162434420423869</v>
+        <v>6.162434420423867</v>
       </c>
       <c r="J30" t="n">
         <v>16.91019106373892</v>
       </c>
       <c r="K30" t="n">
-        <v>28.90220994353447</v>
+        <v>28.90220994353446</v>
       </c>
       <c r="L30" t="n">
-        <v>38.86258802332276</v>
+        <v>38.86258802332275</v>
       </c>
       <c r="M30" t="n">
-        <v>45.35080719336138</v>
+        <v>45.35080719336137</v>
       </c>
       <c r="N30" t="n">
-        <v>45.20552289045682</v>
+        <v>45.20552289045685</v>
       </c>
       <c r="O30" t="n">
-        <v>36.28321681809379</v>
+        <v>42.58516942735459</v>
       </c>
       <c r="P30" t="n">
-        <v>34.17835284030757</v>
+        <v>27.87640023104686</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>11.11279256758221</v>
+        <v>11.1127925675822</v>
       </c>
       <c r="S30" t="n">
         <v>3.324574493056696</v>
       </c>
       <c r="T30" t="n">
-        <v>0.7214365901107685</v>
+        <v>0.7214365901107683</v>
       </c>
       <c r="U30" t="n">
         <v>0.0117753523957144</v>
@@ -33335,19 +33335,19 @@
         <v>0.1500553103104151</v>
       </c>
       <c r="H31" t="n">
-        <v>1.334128122578056</v>
+        <v>1.334128122578055</v>
       </c>
       <c r="I31" t="n">
-        <v>4.512572422789577</v>
+        <v>4.512572422789576</v>
       </c>
       <c r="J31" t="n">
         <v>10.60891043894635</v>
       </c>
       <c r="K31" t="n">
-        <v>17.43369877970096</v>
+        <v>17.43369877970095</v>
       </c>
       <c r="L31" t="n">
-        <v>22.30913222560482</v>
+        <v>22.30913222560481</v>
       </c>
       <c r="M31" t="n">
         <v>23.52185196074989</v>
@@ -33359,19 +33359,19 @@
         <v>21.20963604278487</v>
       </c>
       <c r="P31" t="n">
-        <v>18.14850771245239</v>
+        <v>18.14850771245238</v>
       </c>
       <c r="Q31" t="n">
         <v>12.56508602972031</v>
       </c>
       <c r="R31" t="n">
-        <v>6.74703240723012</v>
+        <v>6.747032407230118</v>
       </c>
       <c r="S31" t="n">
-        <v>2.615054816955143</v>
+        <v>2.615054816955142</v>
       </c>
       <c r="T31" t="n">
-        <v>0.6411454167808646</v>
+        <v>0.6411454167808645</v>
       </c>
       <c r="U31" t="n">
         <v>0.008184835107840835</v>
@@ -33502,7 +33502,7 @@
         <v>16.91019106373892</v>
       </c>
       <c r="K33" t="n">
-        <v>28.90220994353446</v>
+        <v>22.49997188159406</v>
       </c>
       <c r="L33" t="n">
         <v>38.86258802332275</v>
@@ -33511,7 +33511,7 @@
         <v>45.35080719336137</v>
       </c>
       <c r="N33" t="n">
-        <v>38.80328482851642</v>
+        <v>45.20552289045682</v>
       </c>
       <c r="O33" t="n">
         <v>42.58516942735459</v>
@@ -33748,13 +33748,13 @@
         <v>45.35080719336137</v>
       </c>
       <c r="N36" t="n">
-        <v>38.903570281196</v>
+        <v>45.20552289045683</v>
       </c>
       <c r="O36" t="n">
         <v>42.58516942735459</v>
       </c>
       <c r="P36" t="n">
-        <v>34.17835284030756</v>
+        <v>27.87640023104682</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -33985,13 +33985,13 @@
         <v>45.35080719336137</v>
       </c>
       <c r="N39" t="n">
-        <v>38.90357028119607</v>
+        <v>45.20552289045683</v>
       </c>
       <c r="O39" t="n">
         <v>42.58516942735459</v>
       </c>
       <c r="P39" t="n">
-        <v>34.17835284030756</v>
+        <v>27.87640023104681</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -34213,7 +34213,7 @@
         <v>16.91019106373892</v>
       </c>
       <c r="K42" t="n">
-        <v>22.49997188159404</v>
+        <v>28.90220994353446</v>
       </c>
       <c r="L42" t="n">
         <v>38.86258802332275</v>
@@ -34222,7 +34222,7 @@
         <v>45.35080719336137</v>
       </c>
       <c r="N42" t="n">
-        <v>45.20552289045682</v>
+        <v>38.80328482851645</v>
       </c>
       <c r="O42" t="n">
         <v>42.58516942735459</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3466320209203257</v>
+        <v>0.3345225739218023</v>
       </c>
       <c r="H44" t="n">
-        <v>3.549945184250287</v>
+        <v>3.425929310176659</v>
       </c>
       <c r="I44" t="n">
-        <v>13.36353098653087</v>
+        <v>12.8966815311203</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>28.3921853083956</v>
       </c>
       <c r="K44" t="n">
-        <v>44.09289293114392</v>
+        <v>42.5525258625055</v>
       </c>
       <c r="L44" t="n">
-        <v>54.70113264138435</v>
+        <v>52.79017108416487</v>
       </c>
       <c r="M44" t="n">
-        <v>60.86554984342619</v>
+        <v>58.73923690814672</v>
       </c>
       <c r="N44" t="n">
-        <v>61.85041807286608</v>
+        <v>59.68969917130205</v>
       </c>
       <c r="O44" t="n">
-        <v>58.40359591483958</v>
+        <v>56.36329032686712</v>
       </c>
       <c r="P44" t="n">
-        <v>49.84611789836903</v>
+        <v>48.10476428317261</v>
       </c>
       <c r="Q44" t="n">
-        <v>37.43235864915985</v>
+        <v>36.12467460459806</v>
       </c>
       <c r="R44" t="n">
-        <v>21.77412368413643</v>
+        <v>21.01345363411544</v>
       </c>
       <c r="S44" t="n">
-        <v>7.898877176721931</v>
+        <v>7.622933153243078</v>
       </c>
       <c r="T44" t="n">
-        <v>1.517381671578727</v>
+        <v>1.46437256734269</v>
       </c>
       <c r="U44" t="n">
-        <v>0.02773056167362606</v>
+        <v>0.02676180591374418</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.185464481759399</v>
+        <v>0.1789853564148588</v>
       </c>
       <c r="H45" t="n">
-        <v>1.791196442255248</v>
+        <v>1.728621731690874</v>
       </c>
       <c r="I45" t="n">
-        <v>6.385509569347729</v>
+        <v>6.162434420423867</v>
       </c>
       <c r="J45" t="n">
-        <v>17.52232632271585</v>
+        <v>16.91019106373892</v>
       </c>
       <c r="K45" t="n">
-        <v>29.94844660059558</v>
+        <v>28.90220994353446</v>
       </c>
       <c r="L45" t="n">
-        <v>40.26938232236424</v>
+        <v>38.86258802332275</v>
       </c>
       <c r="M45" t="n">
-        <v>46.99246978614244</v>
+        <v>45.35080719336137</v>
       </c>
       <c r="N45" t="n">
-        <v>48.23622063092368</v>
+        <v>38.80328482851642</v>
       </c>
       <c r="O45" t="n">
-        <v>44.12671816667594</v>
+        <v>42.58516942735459</v>
       </c>
       <c r="P45" t="n">
-        <v>32.037163912807</v>
+        <v>34.17835284030756</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>22.84732374165812</v>
       </c>
       <c r="R45" t="n">
-        <v>11.51506668327216</v>
+        <v>11.1127925675822</v>
       </c>
       <c r="S45" t="n">
-        <v>3.444921404609886</v>
+        <v>3.324574493056696</v>
       </c>
       <c r="T45" t="n">
-        <v>0.747552012003893</v>
+        <v>0.7214365901107683</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01220161064206573</v>
+        <v>0.0117753523957144</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1554871913513511</v>
+        <v>0.1500553103104151</v>
       </c>
       <c r="H46" t="n">
-        <v>1.38242248310565</v>
+        <v>1.334128122578055</v>
       </c>
       <c r="I46" t="n">
-        <v>4.675923899911543</v>
+        <v>4.512572422789576</v>
       </c>
       <c r="J46" t="n">
-        <v>10.99294442854053</v>
+        <v>10.60891043894635</v>
       </c>
       <c r="K46" t="n">
-        <v>18.06478459518425</v>
+        <v>17.43369877970095</v>
       </c>
       <c r="L46" t="n">
-        <v>23.11670479418179</v>
+        <v>22.30913222560481</v>
       </c>
       <c r="M46" t="n">
-        <v>24.37332400428498</v>
+        <v>23.52185196074989</v>
       </c>
       <c r="N46" t="n">
-        <v>23.79378083652087</v>
+        <v>22.96255489504745</v>
       </c>
       <c r="O46" t="n">
-        <v>21.97740773755281</v>
+        <v>21.20963604278487</v>
       </c>
       <c r="P46" t="n">
-        <v>18.80546903398523</v>
+        <v>18.14850771245238</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.01993199579359</v>
+        <v>12.56508602972031</v>
       </c>
       <c r="R46" t="n">
-        <v>6.991269531125296</v>
+        <v>6.747032407230118</v>
       </c>
       <c r="S46" t="n">
-        <v>2.709717689277637</v>
+        <v>2.615054816955142</v>
       </c>
       <c r="T46" t="n">
-        <v>0.6643543630466819</v>
+        <v>0.6411454167808645</v>
       </c>
       <c r="U46" t="n">
-        <v>0.008481119528255527</v>
+        <v>0.008184835107840835</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2.260289269774297</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L11" t="n">
-        <v>8.861196083276035</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M11" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="N11" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="O11" t="n">
-        <v>12.97521456470635</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P11" t="n">
-        <v>5.411002368495403</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>3.427749017872301</v>
+        <v>3.427749017872291</v>
       </c>
       <c r="L12" t="n">
-        <v>2.426885566939913</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M12" t="n">
-        <v>15.05805425947915</v>
+        <v>5.272460849556576</v>
       </c>
       <c r="N12" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="O12" t="n">
-        <v>14.88217059581978</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P12" t="n">
-        <v>8.770897105620072</v>
+        <v>8.770897105620062</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2.260289269774297</v>
+        <v>2.260289269774276</v>
       </c>
       <c r="L14" t="n">
-        <v>8.861196083276035</v>
+        <v>8.861196083276006</v>
       </c>
       <c r="M14" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="N14" t="n">
-        <v>15.05805425947914</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O14" t="n">
-        <v>12.97521456470635</v>
+        <v>12.97521456470632</v>
       </c>
       <c r="P14" t="n">
-        <v>5.411002368495403</v>
+        <v>5.411002368495382</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>3.427749017872287</v>
       </c>
       <c r="L15" t="n">
-        <v>12.21247897686247</v>
+        <v>12.21247897686245</v>
       </c>
       <c r="M15" t="n">
-        <v>15.05805425947914</v>
+        <v>5.272460849556612</v>
       </c>
       <c r="N15" t="n">
-        <v>8.70020986742888</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O15" t="n">
-        <v>14.88217059581978</v>
+        <v>14.88217059581975</v>
       </c>
       <c r="P15" t="n">
-        <v>8.770897105620072</v>
+        <v>8.770897105620055</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>6.376113496426193</v>
       </c>
       <c r="L18" t="n">
-        <v>16.17691886905385</v>
+        <v>16.17691886905386</v>
       </c>
       <c r="M18" t="n">
         <v>22.05496501936139</v>
       </c>
       <c r="N18" t="n">
-        <v>16.99711954026112</v>
+        <v>16.99711954026111</v>
       </c>
       <c r="O18" t="n">
         <v>19.22635746243337</v>
@@ -36053,7 +36053,7 @@
         <v>0.8431658598427987</v>
       </c>
       <c r="N19" t="n">
-        <v>2.112862674119196</v>
+        <v>2.112862674119199</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -36208,10 +36208,10 @@
         <v>16.17691886905386</v>
       </c>
       <c r="M21" t="n">
-        <v>22.05496501936139</v>
+        <v>15.54237160057816</v>
       </c>
       <c r="N21" t="n">
-        <v>16.99711954026111</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="O21" t="n">
         <v>19.22635746243337</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>6.502976110201129</v>
+        <v>0.1007380482607607</v>
       </c>
       <c r="L24" t="n">
         <v>16.3475013090932</v>
@@ -36448,16 +36448,16 @@
         <v>22.2540266810334</v>
       </c>
       <c r="N24" t="n">
-        <v>23.86249467691517</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="O24" t="n">
         <v>19.41327970513237</v>
       </c>
       <c r="P24" t="n">
-        <v>6.105559026218142</v>
+        <v>12.4075116354789</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.1002854526796249</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1007380482607607</v>
+        <v>0.100738048260789</v>
       </c>
       <c r="L27" t="n">
         <v>16.3475013090932</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>6.787925067696165</v>
+        <v>6.787925067696158</v>
       </c>
       <c r="L29" t="n">
-        <v>14.47812865154195</v>
+        <v>14.47812865154194</v>
       </c>
       <c r="M29" t="n">
-        <v>21.30797400871491</v>
+        <v>21.3079740087149</v>
       </c>
       <c r="N29" t="n">
-        <v>22.41007633685603</v>
+        <v>22.41007633685602</v>
       </c>
       <c r="O29" t="n">
-        <v>18.97233097084303</v>
+        <v>18.97233097084302</v>
       </c>
       <c r="P29" t="n">
-        <v>10.52940247294132</v>
+        <v>10.52940247294131</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>6.502976110201129</v>
+        <v>6.502976110201125</v>
       </c>
       <c r="L30" t="n">
-        <v>16.3475013090932</v>
+        <v>16.34750130909319</v>
       </c>
       <c r="M30" t="n">
-        <v>22.2540266810334</v>
+        <v>22.25402668103339</v>
       </c>
       <c r="N30" t="n">
-        <v>23.86249467691516</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="O30" t="n">
-        <v>13.11132709587157</v>
+        <v>19.41327970513236</v>
       </c>
       <c r="P30" t="n">
-        <v>12.4075116354789</v>
+        <v>6.105559026218199</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36995,13 +36995,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3903723299035953</v>
+        <v>0.3903723299035917</v>
       </c>
       <c r="M31" t="n">
-        <v>0.9464120692640741</v>
+        <v>0.9464120692640705</v>
       </c>
       <c r="N31" t="n">
-        <v>2.213653919447061</v>
+        <v>2.213653919447058</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>6.502976110201125</v>
+        <v>0.1007380482607264</v>
       </c>
       <c r="L33" t="n">
         <v>16.34750130909319</v>
@@ -37159,7 +37159,7 @@
         <v>22.25402668103339</v>
       </c>
       <c r="N33" t="n">
-        <v>17.46025661497476</v>
+        <v>23.86249467691516</v>
       </c>
       <c r="O33" t="n">
         <v>19.41327970513236</v>
@@ -37396,13 +37396,13 @@
         <v>22.25402668103339</v>
       </c>
       <c r="N36" t="n">
-        <v>17.56054206765434</v>
+        <v>23.86249467691517</v>
       </c>
       <c r="O36" t="n">
         <v>19.41327970513236</v>
       </c>
       <c r="P36" t="n">
-        <v>12.4075116354789</v>
+        <v>6.105559026218156</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37633,13 +37633,13 @@
         <v>22.25402668103339</v>
       </c>
       <c r="N39" t="n">
-        <v>17.56054206765441</v>
+        <v>23.86249467691517</v>
       </c>
       <c r="O39" t="n">
         <v>19.41327970513236</v>
       </c>
       <c r="P39" t="n">
-        <v>12.4075116354789</v>
+        <v>6.105559026218142</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1007380482607053</v>
+        <v>6.502976110201125</v>
       </c>
       <c r="L42" t="n">
         <v>16.34750130909319</v>
@@ -37870,7 +37870,7 @@
         <v>22.25402668103339</v>
       </c>
       <c r="N42" t="n">
-        <v>23.86249467691515</v>
+        <v>17.46025661497479</v>
       </c>
       <c r="O42" t="n">
         <v>19.41327970513236</v>
@@ -38019,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>8.328292136334582</v>
+        <v>6.787925067696158</v>
       </c>
       <c r="L44" t="n">
-        <v>16.38909020876143</v>
+        <v>14.47812865154194</v>
       </c>
       <c r="M44" t="n">
-        <v>23.43428694399438</v>
+        <v>21.3079740087149</v>
       </c>
       <c r="N44" t="n">
-        <v>24.57079523842005</v>
+        <v>22.41007633685602</v>
       </c>
       <c r="O44" t="n">
-        <v>21.01263655881549</v>
+        <v>18.97233097084302</v>
       </c>
       <c r="P44" t="n">
-        <v>12.27075608813773</v>
+        <v>10.52940247294131</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.30768404456181</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>7.549212767262244</v>
+        <v>6.502976110201125</v>
       </c>
       <c r="L45" t="n">
-        <v>17.75429560813468</v>
+        <v>16.34750130909319</v>
       </c>
       <c r="M45" t="n">
-        <v>23.89568927381447</v>
+        <v>22.25402668103339</v>
       </c>
       <c r="N45" t="n">
-        <v>26.89319241738202</v>
+        <v>17.46025661497476</v>
       </c>
       <c r="O45" t="n">
-        <v>20.95482844445372</v>
+        <v>19.41327970513236</v>
       </c>
       <c r="P45" t="n">
-        <v>10.26632270797834</v>
+        <v>12.4075116354789</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>0.1002854526796213</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38180,13 +38180,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1.197944898480571</v>
+        <v>0.3903723299035917</v>
       </c>
       <c r="M46" t="n">
-        <v>1.79788411279916</v>
+        <v>0.9464120692640705</v>
       </c>
       <c r="N46" t="n">
-        <v>3.044879860920478</v>
+        <v>2.213653919447058</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
